--- a/Data/logregla_hofudborgarsvaedis.xlsx
+++ b/Data/logregla_hofudborgarsvaedis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brynjolfurjonsson/Metill/R/logregla/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C72F0F-301C-C341-8679-08381CADDA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07EF4B3-6BE7-D64F-90BA-E2019A333AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20980" windowHeight="27720" xr2:uid="{1A14BB46-C427-4446-B5E7-BDD862E331E3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{1A14BB46-C427-4446-B5E7-BDD862E331E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ofbeldi_samtals</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>innbrot_samtals</t>
+  </si>
+  <si>
+    <t>thjofnadur</t>
+  </si>
+  <si>
+    <t>fikniefni</t>
+  </si>
+  <si>
+    <t>fikniefni_storfelld</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29598F60-ED63-C545-B47D-B215B30B1833}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,7 +436,7 @@
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -449,8 +458,17 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -472,8 +490,14 @@
       <c r="G2">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>335</v>
+      </c>
+      <c r="I2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -492,8 +516,14 @@
       <c r="G3">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>344</v>
+      </c>
+      <c r="I3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -512,8 +542,14 @@
       <c r="G4">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>381</v>
+      </c>
+      <c r="I4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -532,8 +568,14 @@
       <c r="G5">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>409</v>
+      </c>
+      <c r="I5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -552,8 +594,14 @@
       <c r="G6">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>389</v>
+      </c>
+      <c r="I6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -572,8 +620,14 @@
       <c r="G7">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>339</v>
+      </c>
+      <c r="I7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -592,8 +646,14 @@
       <c r="G8">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>309</v>
+      </c>
+      <c r="I8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -612,8 +672,14 @@
       <c r="G9">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>382</v>
+      </c>
+      <c r="I9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -632,8 +698,14 @@
       <c r="G10">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>326</v>
+      </c>
+      <c r="I10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -652,8 +724,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>313</v>
+      </c>
+      <c r="I11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -672,8 +750,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>295</v>
+      </c>
+      <c r="I12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -692,8 +776,14 @@
       <c r="G13">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>270</v>
+      </c>
+      <c r="I13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -715,8 +805,14 @@
       <c r="G14">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -735,8 +831,14 @@
       <c r="G15">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>287</v>
+      </c>
+      <c r="I15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -755,8 +857,14 @@
       <c r="G16">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>313</v>
+      </c>
+      <c r="I16">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -775,8 +883,14 @@
       <c r="G17">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>285</v>
+      </c>
+      <c r="I17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -795,8 +909,14 @@
       <c r="G18">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>357</v>
+      </c>
+      <c r="I18">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>6</v>
       </c>
@@ -815,8 +935,14 @@
       <c r="G19">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>364</v>
+      </c>
+      <c r="I19">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -835,8 +961,14 @@
       <c r="G20">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>351</v>
+      </c>
+      <c r="I20">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>8</v>
       </c>
@@ -855,8 +987,14 @@
       <c r="G21">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>403</v>
+      </c>
+      <c r="I21">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>9</v>
       </c>
@@ -875,8 +1013,14 @@
       <c r="G22">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>380</v>
+      </c>
+      <c r="I22">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>10</v>
       </c>
@@ -895,8 +1039,14 @@
       <c r="G23">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>331</v>
+      </c>
+      <c r="I23">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>11</v>
       </c>
@@ -915,8 +1065,14 @@
       <c r="G24">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>328</v>
+      </c>
+      <c r="I24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>12</v>
       </c>
@@ -935,8 +1091,14 @@
       <c r="G25">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>262</v>
+      </c>
+      <c r="I25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -958,8 +1120,17 @@
       <c r="G26">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>277</v>
+      </c>
+      <c r="I26">
+        <v>125</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -975,8 +1146,17 @@
       <c r="G27">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>281</v>
+      </c>
+      <c r="I27">
+        <v>134</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -992,8 +1172,17 @@
       <c r="G28">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>310</v>
+      </c>
+      <c r="I28">
+        <v>116</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -1009,8 +1198,17 @@
       <c r="G29">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>413</v>
+      </c>
+      <c r="I29">
+        <v>128</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>5</v>
       </c>
@@ -1026,8 +1224,17 @@
       <c r="G30">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>378</v>
+      </c>
+      <c r="I30">
+        <v>119</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>6</v>
       </c>
@@ -1043,8 +1250,17 @@
       <c r="G31">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>418</v>
+      </c>
+      <c r="I31">
+        <v>156</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>7</v>
       </c>
@@ -1060,8 +1276,17 @@
       <c r="G32">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>460</v>
+      </c>
+      <c r="I32">
+        <v>105</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>8</v>
       </c>
@@ -1077,8 +1302,17 @@
       <c r="G33">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>467</v>
+      </c>
+      <c r="I33">
+        <v>136</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>9</v>
       </c>
@@ -1094,8 +1328,17 @@
       <c r="G34">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>475</v>
+      </c>
+      <c r="I34">
+        <v>109</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>10</v>
       </c>
@@ -1111,8 +1354,17 @@
       <c r="G35">
         <v>124</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>447</v>
+      </c>
+      <c r="I35">
+        <v>72</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>11</v>
       </c>
@@ -1128,8 +1380,17 @@
       <c r="G36">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>334</v>
+      </c>
+      <c r="I36">
+        <v>77</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>12</v>
       </c>
@@ -1145,8 +1406,17 @@
       <c r="G37">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>307</v>
+      </c>
+      <c r="I37">
+        <v>77</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -1165,8 +1435,17 @@
       <c r="G38">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>300</v>
+      </c>
+      <c r="I38">
+        <v>122</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>2</v>
       </c>
@@ -1182,8 +1461,17 @@
       <c r="G39">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>263</v>
+      </c>
+      <c r="I39">
+        <v>115</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>3</v>
       </c>
@@ -1199,8 +1487,17 @@
       <c r="G40">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>334</v>
+      </c>
+      <c r="I40">
+        <v>119</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>4</v>
       </c>
@@ -1216,8 +1513,17 @@
       <c r="G41">
         <v>101</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>362</v>
+      </c>
+      <c r="I41">
+        <v>79</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>5</v>
       </c>
@@ -1233,8 +1539,17 @@
       <c r="G42">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>306</v>
+      </c>
+      <c r="I42">
+        <v>121</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>6</v>
       </c>
@@ -1250,8 +1565,17 @@
       <c r="G43">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>300</v>
+      </c>
+      <c r="I43">
+        <v>128</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>7</v>
       </c>
@@ -1267,8 +1591,17 @@
       <c r="G44">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>327</v>
+      </c>
+      <c r="I44">
+        <v>124</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>8</v>
       </c>
@@ -1284,8 +1617,17 @@
       <c r="G45">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>295</v>
+      </c>
+      <c r="I45">
+        <v>108</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>9</v>
       </c>
@@ -1301,8 +1643,17 @@
       <c r="G46">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>351</v>
+      </c>
+      <c r="I46">
+        <v>139</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>10</v>
       </c>
@@ -1318,8 +1669,17 @@
       <c r="G47">
         <v>60</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>338</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>11</v>
       </c>
@@ -1335,8 +1695,17 @@
       <c r="G48">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>310</v>
+      </c>
+      <c r="I48">
+        <v>106</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>12</v>
       </c>
@@ -1352,8 +1721,17 @@
       <c r="G49">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>262</v>
+      </c>
+      <c r="I49">
+        <v>107</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2017</v>
       </c>
@@ -1375,8 +1753,17 @@
       <c r="G50">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>342</v>
+      </c>
+      <c r="I50">
+        <v>120</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>2</v>
       </c>
@@ -1395,8 +1782,17 @@
       <c r="G51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>269</v>
+      </c>
+      <c r="I51">
+        <v>98</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>3</v>
       </c>
@@ -1415,8 +1811,17 @@
       <c r="G52">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>336</v>
+      </c>
+      <c r="I52">
+        <v>127</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>4</v>
       </c>
@@ -1435,8 +1840,17 @@
       <c r="G53">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>322</v>
+      </c>
+      <c r="I53">
+        <v>147</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>5</v>
       </c>
@@ -1455,8 +1869,17 @@
       <c r="G54">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>330</v>
+      </c>
+      <c r="I54">
+        <v>173</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>6</v>
       </c>
@@ -1475,8 +1898,17 @@
       <c r="G55">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>315</v>
+      </c>
+      <c r="I55">
+        <v>188</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>7</v>
       </c>
@@ -1495,8 +1927,17 @@
       <c r="G56">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>318</v>
+      </c>
+      <c r="I56">
+        <v>139</v>
+      </c>
+      <c r="J56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>8</v>
       </c>
@@ -1515,8 +1956,17 @@
       <c r="G57">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>413</v>
+      </c>
+      <c r="I57">
+        <v>136</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>9</v>
       </c>
@@ -1535,8 +1985,17 @@
       <c r="G58">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>440</v>
+      </c>
+      <c r="I58">
+        <v>122</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>10</v>
       </c>
@@ -1555,8 +2014,17 @@
       <c r="G59">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>389</v>
+      </c>
+      <c r="I59">
+        <v>130</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>11</v>
       </c>
@@ -1575,8 +2043,17 @@
       <c r="G60">
         <v>99</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>395</v>
+      </c>
+      <c r="I60">
+        <v>140</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>12</v>
       </c>
@@ -1595,8 +2072,17 @@
       <c r="G61">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>289</v>
+      </c>
+      <c r="I61">
+        <v>132</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -1618,8 +2104,17 @@
       <c r="G62">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>279</v>
+      </c>
+      <c r="I62">
+        <v>138</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>2</v>
       </c>
@@ -1638,8 +2133,17 @@
       <c r="G63">
         <v>98</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>280</v>
+      </c>
+      <c r="I63">
+        <v>127</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>3</v>
       </c>
@@ -1658,8 +2162,17 @@
       <c r="G64">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>306</v>
+      </c>
+      <c r="I64">
+        <v>181</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>4</v>
       </c>
@@ -1678,8 +2191,17 @@
       <c r="G65">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>307</v>
+      </c>
+      <c r="I65">
+        <v>141</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>5</v>
       </c>
@@ -1698,8 +2220,17 @@
       <c r="G66">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>344</v>
+      </c>
+      <c r="I66">
+        <v>131</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>6</v>
       </c>
@@ -1718,8 +2249,17 @@
       <c r="G67">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>341</v>
+      </c>
+      <c r="I67">
+        <v>216</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>7</v>
       </c>
@@ -1738,8 +2278,17 @@
       <c r="G68">
         <v>80</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>337</v>
+      </c>
+      <c r="I68">
+        <v>127</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>8</v>
       </c>
@@ -1758,8 +2307,17 @@
       <c r="G69">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>359</v>
+      </c>
+      <c r="I69">
+        <v>121</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>9</v>
       </c>
@@ -1778,8 +2336,17 @@
       <c r="G70">
         <v>96</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>370</v>
+      </c>
+      <c r="I70">
+        <v>109</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>10</v>
       </c>
@@ -1798,8 +2365,17 @@
       <c r="G71">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>367</v>
+      </c>
+      <c r="I71">
+        <v>113</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>11</v>
       </c>
@@ -1818,8 +2394,17 @@
       <c r="G72">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>358</v>
+      </c>
+      <c r="I72">
+        <v>110</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>12</v>
       </c>
@@ -1838,8 +2423,17 @@
       <c r="G73">
         <v>126</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>312</v>
+      </c>
+      <c r="I73">
+        <v>111</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2019</v>
       </c>
@@ -1861,8 +2455,17 @@
       <c r="G74">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>240</v>
+      </c>
+      <c r="I74">
+        <v>115</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>2</v>
       </c>
@@ -1881,8 +2484,17 @@
       <c r="G75">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>226</v>
+      </c>
+      <c r="I75">
+        <v>128</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>3</v>
       </c>
@@ -1901,8 +2513,17 @@
       <c r="G76">
         <v>65</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>311</v>
+      </c>
+      <c r="I76">
+        <v>152</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>4</v>
       </c>
@@ -1921,8 +2542,17 @@
       <c r="G77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>324</v>
+      </c>
+      <c r="I77">
+        <v>131</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>5</v>
       </c>
@@ -1941,8 +2571,17 @@
       <c r="G78">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>348</v>
+      </c>
+      <c r="I78">
+        <v>86</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>6</v>
       </c>
@@ -1961,8 +2600,17 @@
       <c r="G79">
         <v>71</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>342</v>
+      </c>
+      <c r="I79">
+        <v>164</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>7</v>
       </c>
@@ -1981,8 +2629,17 @@
       <c r="G80">
         <v>70</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>332</v>
+      </c>
+      <c r="I80">
+        <v>120</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>8</v>
       </c>
@@ -2001,8 +2658,17 @@
       <c r="G81">
         <v>114</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>439</v>
+      </c>
+      <c r="I81">
+        <v>105</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>9</v>
       </c>
@@ -2021,8 +2687,17 @@
       <c r="G82">
         <v>101</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>441</v>
+      </c>
+      <c r="I82">
+        <v>103</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>10</v>
       </c>
@@ -2041,8 +2716,17 @@
       <c r="G83">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>434</v>
+      </c>
+      <c r="I83">
+        <v>117</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>11</v>
       </c>
@@ -2061,8 +2745,17 @@
       <c r="G84">
         <v>95</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>350</v>
+      </c>
+      <c r="I84">
+        <v>95</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>12</v>
       </c>
@@ -2081,8 +2774,17 @@
       <c r="G85">
         <v>99</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>311</v>
+      </c>
+      <c r="I85">
+        <v>88</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -2104,8 +2806,17 @@
       <c r="G86">
         <v>55</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>283</v>
+      </c>
+      <c r="I86">
+        <v>89</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>2</v>
       </c>
@@ -2124,8 +2835,17 @@
       <c r="G87">
         <v>101</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>334</v>
+      </c>
+      <c r="I87">
+        <v>87</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>3</v>
       </c>
@@ -2144,8 +2864,17 @@
       <c r="G88">
         <v>60</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>262</v>
+      </c>
+      <c r="I88">
+        <v>85</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>4</v>
       </c>
@@ -2164,8 +2893,17 @@
       <c r="G89">
         <v>63</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>263</v>
+      </c>
+      <c r="I89">
+        <v>88</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>5</v>
       </c>
@@ -2184,8 +2922,17 @@
       <c r="G90">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>306</v>
+      </c>
+      <c r="I90">
+        <v>136</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>6</v>
       </c>
@@ -2204,8 +2951,17 @@
       <c r="G91">
         <v>76</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>303</v>
+      </c>
+      <c r="I91">
+        <v>92</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>7</v>
       </c>
@@ -2224,8 +2980,17 @@
       <c r="G92">
         <v>99</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>355</v>
+      </c>
+      <c r="I92">
+        <v>114</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>8</v>
       </c>
@@ -2244,8 +3009,17 @@
       <c r="G93">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>415</v>
+      </c>
+      <c r="I93">
+        <v>90</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>9</v>
       </c>
@@ -2264,8 +3038,17 @@
       <c r="G94">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>393</v>
+      </c>
+      <c r="I94">
+        <v>97</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>10</v>
       </c>
@@ -2284,8 +3067,17 @@
       <c r="G95">
         <v>81</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>411</v>
+      </c>
+      <c r="I95">
+        <v>82</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>11</v>
       </c>
@@ -2304,8 +3096,17 @@
       <c r="G96">
         <v>59</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>320</v>
+      </c>
+      <c r="I96">
+        <v>79</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>12</v>
       </c>
@@ -2324,8 +3125,17 @@
       <c r="G97">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <v>287</v>
+      </c>
+      <c r="I97">
+        <v>90</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -2347,8 +3157,17 @@
       <c r="G98">
         <v>64</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>249</v>
+      </c>
+      <c r="I98">
+        <v>91</v>
+      </c>
+      <c r="J98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>2</v>
       </c>
@@ -2367,8 +3186,17 @@
       <c r="G99">
         <v>44</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <v>239</v>
+      </c>
+      <c r="I99">
+        <v>141</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>3</v>
       </c>
@@ -2387,8 +3215,17 @@
       <c r="G100">
         <v>36</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <v>294</v>
+      </c>
+      <c r="I100">
+        <v>143</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>4</v>
       </c>
@@ -2407,8 +3244,17 @@
       <c r="G101">
         <v>88</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <v>367</v>
+      </c>
+      <c r="I101">
+        <v>86</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>5</v>
       </c>
@@ -2427,8 +3273,17 @@
       <c r="G102">
         <v>93</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <v>448</v>
+      </c>
+      <c r="I102">
+        <v>115</v>
+      </c>
+      <c r="J102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>6</v>
       </c>
@@ -2447,8 +3302,17 @@
       <c r="G103">
         <v>115</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <v>495</v>
+      </c>
+      <c r="I103">
+        <v>85</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>7</v>
       </c>
@@ -2467,8 +3331,17 @@
       <c r="G104">
         <v>110</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <v>483</v>
+      </c>
+      <c r="I104">
+        <v>80</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>8</v>
       </c>
@@ -2487,8 +3360,17 @@
       <c r="G105">
         <v>83</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <v>372</v>
+      </c>
+      <c r="I105">
+        <v>77</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>9</v>
       </c>
@@ -2507,8 +3389,17 @@
       <c r="G106">
         <v>86</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <v>391</v>
+      </c>
+      <c r="I106">
+        <v>91</v>
+      </c>
+      <c r="J106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>10</v>
       </c>
@@ -2527,8 +3418,17 @@
       <c r="G107">
         <v>86</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <v>404</v>
+      </c>
+      <c r="I107">
+        <v>93</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>11</v>
       </c>
@@ -2547,8 +3447,17 @@
       <c r="G108">
         <v>58</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <v>262</v>
+      </c>
+      <c r="I108">
+        <v>59</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>12</v>
       </c>
@@ -2567,8 +3476,17 @@
       <c r="G109">
         <v>64</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <v>297</v>
+      </c>
+      <c r="I109">
+        <v>74</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2022</v>
       </c>
@@ -2590,8 +3508,17 @@
       <c r="G110">
         <v>66</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <v>255</v>
+      </c>
+      <c r="I110">
+        <v>85</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>2</v>
       </c>
@@ -2610,8 +3537,17 @@
       <c r="G111">
         <v>47</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <v>212</v>
+      </c>
+      <c r="I111">
+        <v>76</v>
+      </c>
+      <c r="J111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>3</v>
       </c>
@@ -2630,8 +3566,17 @@
       <c r="G112">
         <v>65</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <v>313</v>
+      </c>
+      <c r="I112">
+        <v>83</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>4</v>
       </c>
@@ -2650,8 +3595,17 @@
       <c r="G113">
         <v>69</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <v>274</v>
+      </c>
+      <c r="I113">
+        <v>90</v>
+      </c>
+      <c r="J113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>5</v>
       </c>
@@ -2670,8 +3624,17 @@
       <c r="G114">
         <v>65</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <v>310</v>
+      </c>
+      <c r="I114">
+        <v>117</v>
+      </c>
+      <c r="J114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>6</v>
       </c>
@@ -2690,8 +3653,17 @@
       <c r="G115">
         <v>107</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>378</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>7</v>
       </c>
@@ -2710,8 +3682,17 @@
       <c r="G116">
         <v>92</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <v>379</v>
+      </c>
+      <c r="I116">
+        <v>75</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>8</v>
       </c>
@@ -2730,8 +3711,17 @@
       <c r="G117">
         <v>127</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <v>455</v>
+      </c>
+      <c r="I117">
+        <v>93</v>
+      </c>
+      <c r="J117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <v>9</v>
       </c>
@@ -2750,8 +3740,17 @@
       <c r="G118">
         <v>102</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <v>416</v>
+      </c>
+      <c r="I118">
+        <v>82</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>10</v>
       </c>
@@ -2770,8 +3769,17 @@
       <c r="G119">
         <v>107</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>407</v>
+      </c>
+      <c r="I119">
+        <v>96</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>11</v>
       </c>
@@ -2790,8 +3798,17 @@
       <c r="G120">
         <v>85</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>311</v>
+      </c>
+      <c r="I120">
+        <v>112</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <v>12</v>
       </c>
@@ -2810,8 +3827,17 @@
       <c r="G121">
         <v>53</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>227</v>
+      </c>
+      <c r="I121">
+        <v>80</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2023</v>
       </c>
@@ -2833,8 +3859,17 @@
       <c r="G122">
         <v>81</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>267</v>
+      </c>
+      <c r="I122">
+        <v>54</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <v>2</v>
       </c>
@@ -2853,8 +3888,17 @@
       <c r="G123">
         <v>65</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>269</v>
+      </c>
+      <c r="I123">
+        <v>86</v>
+      </c>
+      <c r="J123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>3</v>
       </c>
@@ -2873,8 +3917,17 @@
       <c r="G124">
         <v>78</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>338</v>
+      </c>
+      <c r="I124">
+        <v>76</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <v>4</v>
       </c>
@@ -2893,8 +3946,17 @@
       <c r="G125">
         <v>91</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>355</v>
+      </c>
+      <c r="I125">
+        <v>82</v>
+      </c>
+      <c r="J125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <v>5</v>
       </c>
@@ -2913,8 +3975,17 @@
       <c r="G126">
         <v>59</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>297</v>
+      </c>
+      <c r="I126">
+        <v>65</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <v>6</v>
       </c>
@@ -2933,8 +4004,17 @@
       <c r="G127">
         <v>64</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>362</v>
+      </c>
+      <c r="I127">
+        <v>88</v>
+      </c>
+      <c r="J127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>7</v>
       </c>
@@ -2953,8 +4033,17 @@
       <c r="G128">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>462</v>
+      </c>
+      <c r="I128">
+        <v>94</v>
+      </c>
+      <c r="J128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>8</v>
       </c>
@@ -2973,8 +4062,17 @@
       <c r="G129">
         <v>76</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>383</v>
+      </c>
+      <c r="I129">
+        <v>60</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>9</v>
       </c>
@@ -2993,8 +4091,17 @@
       <c r="G130">
         <v>59</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>317</v>
+      </c>
+      <c r="I130">
+        <v>59</v>
+      </c>
+      <c r="J130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <v>10</v>
       </c>
@@ -3013,8 +4120,17 @@
       <c r="G131">
         <v>65</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>365</v>
+      </c>
+      <c r="I131">
+        <v>77</v>
+      </c>
+      <c r="J131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <v>11</v>
       </c>
@@ -3032,6 +4148,15 @@
       </c>
       <c r="G132">
         <v>42</v>
+      </c>
+      <c r="H132">
+        <v>273</v>
+      </c>
+      <c r="I132">
+        <v>74</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/logregla_hofudborgarsvaedis.xlsx
+++ b/Data/logregla_hofudborgarsvaedis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brynjolfurjonsson/Metill/R/logregla/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07EF4B3-6BE7-D64F-90BA-E2019A333AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75A0940-1E81-3546-AD0B-7D2774954CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{1A14BB46-C427-4446-B5E7-BDD862E331E3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="21580" xr2:uid="{1A14BB46-C427-4446-B5E7-BDD862E331E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ofbeldi_samtals</t>
   </si>
@@ -66,6 +66,36 @@
   </si>
   <si>
     <t>fikniefni_storfelld</t>
+  </si>
+  <si>
+    <t>logregla_ofbeldi</t>
+  </si>
+  <si>
+    <t>logregla_hotun</t>
+  </si>
+  <si>
+    <t>heimilisofbeldi</t>
+  </si>
+  <si>
+    <t>kynferdisbrot</t>
+  </si>
+  <si>
+    <t>umferdarslys</t>
+  </si>
+  <si>
+    <t>umferdarslys_afengi</t>
+  </si>
+  <si>
+    <t>umferdarslys_fikniefni</t>
+  </si>
+  <si>
+    <t>akstur_olvun</t>
+  </si>
+  <si>
+    <t>akstur_fikniefni</t>
+  </si>
+  <si>
+    <t>ofbeldi_minnihattar</t>
   </si>
 </sst>
 </file>
@@ -425,18 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29598F60-ED63-C545-B47D-B215B30B1833}">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -444,3719 +475,6786 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2013</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>57</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43</v>
+      </c>
+      <c r="K2">
         <v>70</v>
       </c>
-      <c r="D2">
+      <c r="L2">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="M2">
         <v>704</v>
       </c>
-      <c r="F2">
+      <c r="N2">
         <v>38</v>
       </c>
-      <c r="G2">
+      <c r="O2">
         <v>83</v>
       </c>
-      <c r="H2">
+      <c r="P2">
         <v>335</v>
       </c>
-      <c r="I2">
+      <c r="Q2">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>63</v>
+      </c>
+      <c r="J3" s="1">
+        <v>49</v>
+      </c>
+      <c r="K3">
         <v>57</v>
       </c>
-      <c r="D3">
+      <c r="L3">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="M3">
         <v>616</v>
       </c>
-      <c r="F3">
+      <c r="N3">
         <v>25</v>
       </c>
-      <c r="G3">
+      <c r="O3">
         <v>75</v>
       </c>
-      <c r="H3">
+      <c r="P3">
         <v>344</v>
       </c>
-      <c r="I3">
+      <c r="Q3">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>79</v>
+      </c>
+      <c r="J4" s="1">
+        <v>72</v>
+      </c>
+      <c r="K4">
         <v>85</v>
       </c>
-      <c r="D4">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="M4">
         <v>704</v>
       </c>
-      <c r="F4">
+      <c r="N4">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="O4">
         <v>65</v>
       </c>
-      <c r="H4">
+      <c r="P4">
         <v>381</v>
       </c>
-      <c r="I4">
+      <c r="Q4">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>63</v>
+      </c>
+      <c r="J5" s="1">
+        <v>62</v>
+      </c>
+      <c r="K5">
         <v>47</v>
       </c>
-      <c r="D5">
+      <c r="L5">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="M5">
         <v>684</v>
       </c>
-      <c r="F5">
+      <c r="N5">
         <v>21</v>
       </c>
-      <c r="G5">
+      <c r="O5">
         <v>85</v>
       </c>
-      <c r="H5">
+      <c r="P5">
         <v>409</v>
       </c>
-      <c r="I5">
+      <c r="Q5">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>81</v>
+      </c>
+      <c r="J6" s="1">
+        <v>61</v>
+      </c>
+      <c r="K6">
         <v>55</v>
       </c>
-      <c r="D6">
+      <c r="L6">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="M6">
         <v>675</v>
       </c>
-      <c r="F6">
+      <c r="N6">
         <v>23</v>
       </c>
-      <c r="G6">
+      <c r="O6">
         <v>82</v>
       </c>
-      <c r="H6">
+      <c r="P6">
         <v>389</v>
       </c>
-      <c r="I6">
+      <c r="Q6">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>98</v>
+      </c>
+      <c r="J7" s="1">
+        <v>63</v>
+      </c>
+      <c r="K7">
         <v>52</v>
       </c>
-      <c r="D7">
+      <c r="L7">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="M7">
         <v>642</v>
       </c>
-      <c r="F7">
+      <c r="N7">
         <v>27</v>
       </c>
-      <c r="G7">
+      <c r="O7">
         <v>77</v>
       </c>
-      <c r="H7">
+      <c r="P7">
         <v>339</v>
       </c>
-      <c r="I7">
+      <c r="Q7">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>73</v>
+      </c>
+      <c r="J8" s="1">
+        <v>79</v>
+      </c>
+      <c r="K8">
         <v>56</v>
       </c>
-      <c r="D8">
+      <c r="L8">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="M8">
         <v>588</v>
       </c>
-      <c r="F8">
+      <c r="N8">
         <v>19</v>
       </c>
-      <c r="G8">
+      <c r="O8">
         <v>59</v>
       </c>
-      <c r="H8">
+      <c r="P8">
         <v>309</v>
       </c>
-      <c r="I8">
+      <c r="Q8">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>45</v>
       </c>
-      <c r="D9">
+      <c r="L9">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="M9">
         <v>683</v>
       </c>
-      <c r="F9">
+      <c r="N9">
         <v>29</v>
       </c>
-      <c r="G9">
+      <c r="O9">
         <v>71</v>
       </c>
-      <c r="H9">
+      <c r="P9">
         <v>382</v>
       </c>
-      <c r="I9">
+      <c r="Q9">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1">
         <v>61</v>
       </c>
-      <c r="D10">
+      <c r="K10">
+        <v>61</v>
+      </c>
+      <c r="L10">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="M10">
         <v>621</v>
       </c>
-      <c r="F10">
+      <c r="N10">
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="O10">
         <v>58</v>
       </c>
-      <c r="H10">
+      <c r="P10">
         <v>326</v>
       </c>
-      <c r="I10">
+      <c r="Q10">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>62</v>
+      </c>
+      <c r="J11" s="1">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>75</v>
       </c>
-      <c r="D11">
+      <c r="L11">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="M11">
         <v>655</v>
       </c>
-      <c r="F11">
+      <c r="N11">
         <v>12</v>
       </c>
-      <c r="G11">
+      <c r="O11">
         <v>59</v>
       </c>
-      <c r="H11">
+      <c r="P11">
         <v>313</v>
       </c>
-      <c r="I11">
+      <c r="Q11">
         <v>155</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>97</v>
+      </c>
+      <c r="J12" s="1">
+        <v>92</v>
+      </c>
+      <c r="K12">
         <v>73</v>
       </c>
-      <c r="D12">
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="M12">
         <v>582</v>
       </c>
-      <c r="F12">
+      <c r="N12">
         <v>24</v>
       </c>
-      <c r="G12">
+      <c r="O12">
         <v>58</v>
       </c>
-      <c r="H12">
+      <c r="P12">
         <v>295</v>
       </c>
-      <c r="I12">
+      <c r="Q12">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>68</v>
+      </c>
+      <c r="J13" s="1">
+        <v>75</v>
+      </c>
+      <c r="K13">
         <v>79</v>
       </c>
-      <c r="D13">
+      <c r="L13">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="M13">
         <v>563</v>
       </c>
-      <c r="F13">
+      <c r="N13">
         <v>19</v>
       </c>
-      <c r="G13">
+      <c r="O13">
         <v>69</v>
       </c>
-      <c r="H13">
+      <c r="P13">
         <v>270</v>
       </c>
-      <c r="I13">
+      <c r="Q13">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1">
+        <v>76</v>
+      </c>
+      <c r="K14">
         <v>61</v>
       </c>
-      <c r="D14">
+      <c r="L14">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="M14">
         <v>614</v>
       </c>
-      <c r="F14">
+      <c r="N14">
         <v>15</v>
       </c>
-      <c r="G14">
+      <c r="O14">
         <v>62</v>
       </c>
-      <c r="H14">
+      <c r="P14">
         <v>300</v>
       </c>
-      <c r="I14">
+      <c r="Q14">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1">
+        <v>65</v>
+      </c>
+      <c r="K15">
         <v>79</v>
       </c>
-      <c r="D15">
+      <c r="L15">
         <v>19</v>
       </c>
-      <c r="E15">
+      <c r="M15">
         <v>556</v>
       </c>
-      <c r="F15">
+      <c r="N15">
         <v>15</v>
       </c>
-      <c r="G15">
+      <c r="O15">
         <v>54</v>
       </c>
-      <c r="H15">
+      <c r="P15">
         <v>287</v>
       </c>
-      <c r="I15">
+      <c r="Q15">
         <v>177</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>82</v>
+      </c>
+      <c r="J16" s="1">
+        <v>97</v>
+      </c>
+      <c r="K16">
         <v>81</v>
       </c>
-      <c r="D16">
+      <c r="L16">
         <v>8</v>
       </c>
-      <c r="E16">
+      <c r="M16">
         <v>653</v>
       </c>
-      <c r="F16">
+      <c r="N16">
         <v>17</v>
       </c>
-      <c r="G16">
+      <c r="O16">
         <v>67</v>
       </c>
-      <c r="H16">
+      <c r="P16">
         <v>313</v>
       </c>
-      <c r="I16">
+      <c r="Q16">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>80</v>
+      </c>
+      <c r="J17" s="1">
+        <v>91</v>
+      </c>
+      <c r="K17">
         <v>60</v>
       </c>
-      <c r="D17">
+      <c r="L17">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="M17">
         <v>558</v>
       </c>
-      <c r="F17">
+      <c r="N17">
         <v>22</v>
       </c>
-      <c r="G17">
+      <c r="O17">
         <v>74</v>
       </c>
-      <c r="H17">
+      <c r="P17">
         <v>285</v>
       </c>
-      <c r="I17">
+      <c r="Q17">
         <v>189</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>87</v>
+      </c>
+      <c r="J18" s="1">
+        <v>93</v>
+      </c>
+      <c r="K18">
         <v>81</v>
       </c>
-      <c r="D18">
+      <c r="L18">
         <v>14</v>
       </c>
-      <c r="E18">
+      <c r="M18">
         <v>706</v>
       </c>
-      <c r="F18">
+      <c r="N18">
         <v>24</v>
       </c>
-      <c r="G18">
+      <c r="O18">
         <v>79</v>
       </c>
-      <c r="H18">
+      <c r="P18">
         <v>357</v>
       </c>
-      <c r="I18">
+      <c r="Q18">
         <v>163</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <v>80</v>
+      </c>
+      <c r="J19" s="1">
+        <v>124</v>
+      </c>
+      <c r="K19">
         <v>57</v>
       </c>
-      <c r="D19">
+      <c r="L19">
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="M19">
         <v>648</v>
       </c>
-      <c r="F19">
+      <c r="N19">
         <v>23</v>
       </c>
-      <c r="G19">
+      <c r="O19">
         <v>82</v>
       </c>
-      <c r="H19">
+      <c r="P19">
         <v>364</v>
       </c>
-      <c r="I19">
+      <c r="Q19">
         <v>207</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>66</v>
+      </c>
+      <c r="J20" s="1">
+        <v>91</v>
+      </c>
+      <c r="K20">
         <v>63</v>
       </c>
-      <c r="D20">
+      <c r="L20">
         <v>12</v>
       </c>
-      <c r="E20">
+      <c r="M20">
         <v>664</v>
       </c>
-      <c r="F20">
+      <c r="N20">
         <v>27</v>
       </c>
-      <c r="G20">
+      <c r="O20">
         <v>81</v>
       </c>
-      <c r="H20">
+      <c r="P20">
         <v>351</v>
       </c>
-      <c r="I20">
+      <c r="Q20">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>76</v>
+      </c>
+      <c r="J21" s="1">
+        <v>71</v>
+      </c>
+      <c r="K21">
         <v>74</v>
       </c>
-      <c r="D21">
+      <c r="L21">
         <v>15</v>
       </c>
-      <c r="E21">
+      <c r="M21">
         <v>753</v>
       </c>
-      <c r="F21">
+      <c r="N21">
         <v>35</v>
       </c>
-      <c r="G21">
+      <c r="O21">
         <v>113</v>
       </c>
-      <c r="H21">
+      <c r="P21">
         <v>403</v>
       </c>
-      <c r="I21">
+      <c r="Q21">
         <v>139</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <v>8</v>
+      </c>
+      <c r="T21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1">
+        <v>63</v>
+      </c>
+      <c r="K22">
         <v>76</v>
       </c>
-      <c r="D22">
+      <c r="L22">
         <v>13</v>
       </c>
-      <c r="E22">
+      <c r="M22">
         <v>680</v>
       </c>
-      <c r="F22">
+      <c r="N22">
         <v>29</v>
       </c>
-      <c r="G22">
+      <c r="O22">
         <v>66</v>
       </c>
-      <c r="H22">
+      <c r="P22">
         <v>380</v>
       </c>
-      <c r="I22">
+      <c r="Q22">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
+        <v>36</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>53</v>
+      </c>
+      <c r="J23" s="1">
+        <v>79</v>
+      </c>
+      <c r="K23">
         <v>62</v>
       </c>
-      <c r="D23">
+      <c r="L23">
         <v>11</v>
       </c>
-      <c r="E23">
+      <c r="M23">
         <v>636</v>
       </c>
-      <c r="F23">
+      <c r="N23">
         <v>20</v>
       </c>
-      <c r="G23">
+      <c r="O23">
         <v>64</v>
       </c>
-      <c r="H23">
+      <c r="P23">
         <v>331</v>
       </c>
-      <c r="I23">
+      <c r="Q23">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>11</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>69</v>
+      </c>
+      <c r="J24" s="1">
+        <v>85</v>
+      </c>
+      <c r="K24">
         <v>82</v>
       </c>
-      <c r="D24">
+      <c r="L24">
         <v>11</v>
       </c>
-      <c r="E24">
+      <c r="M24">
         <v>724</v>
       </c>
-      <c r="F24">
+      <c r="N24">
         <v>26</v>
       </c>
-      <c r="G24">
+      <c r="O24">
         <v>88</v>
       </c>
-      <c r="H24">
+      <c r="P24">
         <v>328</v>
       </c>
-      <c r="I24">
+      <c r="Q24">
         <v>111</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>12</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>71</v>
+      </c>
+      <c r="J25" s="1">
+        <v>71</v>
+      </c>
+      <c r="K25">
         <v>84</v>
       </c>
-      <c r="D25">
+      <c r="L25">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="M25">
         <v>597</v>
       </c>
-      <c r="F25">
+      <c r="N25">
         <v>34</v>
       </c>
-      <c r="G25">
+      <c r="O25">
         <v>69</v>
       </c>
-      <c r="H25">
+      <c r="P25">
         <v>262</v>
       </c>
-      <c r="I25">
+      <c r="Q25">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2015</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
+        <v>42</v>
+      </c>
+      <c r="J26" s="1">
+        <v>60</v>
+      </c>
+      <c r="K26">
         <v>92</v>
       </c>
-      <c r="D26">
+      <c r="L26">
         <v>17</v>
       </c>
-      <c r="E26">
+      <c r="M26">
         <v>648</v>
       </c>
-      <c r="F26">
+      <c r="N26">
         <v>20</v>
       </c>
-      <c r="G26">
+      <c r="O26">
         <v>64</v>
       </c>
-      <c r="H26">
+      <c r="P26">
         <v>277</v>
       </c>
-      <c r="I26">
+      <c r="Q26">
         <v>125</v>
       </c>
-      <c r="J26">
+      <c r="R26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
+        <v>45</v>
+      </c>
+      <c r="J27" s="1">
+        <v>60</v>
+      </c>
+      <c r="K27">
         <v>90</v>
       </c>
-      <c r="D27">
+      <c r="L27">
         <v>10</v>
       </c>
-      <c r="E27">
+      <c r="M27">
         <v>612</v>
       </c>
-      <c r="G27">
+      <c r="O27">
         <v>71</v>
       </c>
-      <c r="H27">
+      <c r="P27">
         <v>281</v>
       </c>
-      <c r="I27">
+      <c r="Q27">
         <v>134</v>
       </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
+        <v>53</v>
+      </c>
+      <c r="J28" s="1">
+        <v>58</v>
+      </c>
+      <c r="K28">
         <v>98</v>
       </c>
-      <c r="D28">
+      <c r="L28">
         <v>14</v>
       </c>
-      <c r="E28">
+      <c r="M28">
         <v>687</v>
       </c>
-      <c r="G28">
+      <c r="O28">
         <v>75</v>
       </c>
-      <c r="H28">
+      <c r="P28">
         <v>310</v>
       </c>
-      <c r="I28">
+      <c r="Q28">
         <v>116</v>
       </c>
-      <c r="J28">
+      <c r="R28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>49</v>
+      </c>
+      <c r="J29" s="1">
+        <v>74</v>
+      </c>
+      <c r="K29">
         <v>91</v>
       </c>
-      <c r="D29">
+      <c r="L29">
         <v>17</v>
       </c>
-      <c r="E29">
+      <c r="M29">
         <v>790</v>
       </c>
-      <c r="G29">
+      <c r="O29">
         <v>87</v>
       </c>
-      <c r="H29">
+      <c r="P29">
         <v>413</v>
       </c>
-      <c r="I29">
+      <c r="Q29">
         <v>128</v>
       </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>73</v>
+      </c>
+      <c r="J30" s="1">
+        <v>96</v>
+      </c>
+      <c r="K30">
         <v>90</v>
       </c>
-      <c r="D30">
+      <c r="L30">
         <v>10</v>
       </c>
-      <c r="E30">
+      <c r="M30">
         <v>766</v>
       </c>
-      <c r="G30">
+      <c r="O30">
         <v>82</v>
       </c>
-      <c r="H30">
+      <c r="P30">
         <v>378</v>
       </c>
-      <c r="I30">
+      <c r="Q30">
         <v>119</v>
       </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>68</v>
+      </c>
+      <c r="J31" s="1">
+        <v>84</v>
+      </c>
+      <c r="K31">
         <v>110</v>
       </c>
-      <c r="D31">
+      <c r="L31">
         <v>12</v>
       </c>
-      <c r="E31">
+      <c r="M31">
         <v>817</v>
       </c>
-      <c r="G31">
+      <c r="O31">
         <v>98</v>
       </c>
-      <c r="H31">
+      <c r="P31">
         <v>418</v>
       </c>
-      <c r="I31">
+      <c r="Q31">
         <v>156</v>
       </c>
-      <c r="J31">
+      <c r="R31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
+        <v>81</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>64</v>
+      </c>
+      <c r="J32" s="1">
+        <v>76</v>
+      </c>
+      <c r="K32">
         <v>87</v>
       </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
         <v>816</v>
       </c>
-      <c r="G32">
+      <c r="O32">
         <v>107</v>
       </c>
-      <c r="H32">
+      <c r="P32">
         <v>460</v>
       </c>
-      <c r="I32">
+      <c r="Q32">
         <v>105</v>
       </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>8</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
+        <v>111</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>19</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
+        <v>54</v>
+      </c>
+      <c r="J33" s="1">
+        <v>82</v>
+      </c>
+      <c r="K33">
         <v>127</v>
       </c>
-      <c r="D33">
+      <c r="L33">
         <v>14</v>
       </c>
-      <c r="E33">
+      <c r="M33">
         <v>897</v>
       </c>
-      <c r="G33">
+      <c r="O33">
         <v>117</v>
       </c>
-      <c r="H33">
+      <c r="P33">
         <v>467</v>
       </c>
-      <c r="I33">
+      <c r="Q33">
         <v>136</v>
       </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
+        <v>56</v>
+      </c>
+      <c r="J34" s="1">
+        <v>64</v>
+      </c>
+      <c r="K34">
         <v>95</v>
       </c>
-      <c r="D34">
+      <c r="L34">
         <v>17</v>
       </c>
-      <c r="E34">
+      <c r="M34">
         <v>851</v>
       </c>
-      <c r="G34">
+      <c r="O34">
         <v>99</v>
       </c>
-      <c r="H34">
+      <c r="P34">
         <v>475</v>
       </c>
-      <c r="I34">
+      <c r="Q34">
         <v>109</v>
       </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
+        <v>36</v>
+      </c>
+      <c r="J35" s="1">
+        <v>37</v>
+      </c>
+      <c r="K35">
         <v>106</v>
       </c>
-      <c r="D35">
+      <c r="L35">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="M35">
         <v>860</v>
       </c>
-      <c r="G35">
+      <c r="O35">
         <v>124</v>
       </c>
-      <c r="H35">
+      <c r="P35">
         <v>447</v>
       </c>
-      <c r="I35">
+      <c r="Q35">
         <v>72</v>
       </c>
-      <c r="J35">
+      <c r="R35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
+        <v>48</v>
+      </c>
+      <c r="J36" s="1">
+        <v>53</v>
+      </c>
+      <c r="K36">
         <v>92</v>
       </c>
-      <c r="D36">
+      <c r="L36">
         <v>16</v>
       </c>
-      <c r="E36">
+      <c r="M36">
         <v>685</v>
       </c>
-      <c r="G36">
+      <c r="O36">
         <v>74</v>
       </c>
-      <c r="H36">
+      <c r="P36">
         <v>334</v>
       </c>
-      <c r="I36">
+      <c r="Q36">
         <v>77</v>
       </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>12</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>62</v>
+      </c>
+      <c r="J37" s="1">
+        <v>58</v>
+      </c>
+      <c r="K37">
         <v>102</v>
       </c>
-      <c r="D37">
+      <c r="L37">
         <v>17</v>
       </c>
-      <c r="E37">
+      <c r="M37">
         <v>685</v>
       </c>
-      <c r="G37">
+      <c r="O37">
         <v>90</v>
       </c>
-      <c r="H37">
+      <c r="P37">
         <v>307</v>
       </c>
-      <c r="I37">
+      <c r="Q37">
         <v>77</v>
       </c>
-      <c r="J37">
+      <c r="R37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S37">
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2016</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
+        <v>88</v>
+      </c>
+      <c r="D38">
+        <v>54</v>
+      </c>
+      <c r="E38" s="1">
+        <v>12</v>
+      </c>
+      <c r="I38" s="1">
+        <v>47</v>
+      </c>
+      <c r="J38" s="1">
+        <v>71</v>
+      </c>
+      <c r="K38">
         <v>111</v>
       </c>
-      <c r="D38">
+      <c r="L38">
         <v>19</v>
       </c>
-      <c r="E38">
+      <c r="M38">
         <v>725</v>
       </c>
-      <c r="G38">
+      <c r="O38">
         <v>86</v>
       </c>
-      <c r="H38">
+      <c r="P38">
         <v>300</v>
       </c>
-      <c r="I38">
+      <c r="Q38">
         <v>122</v>
       </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>55</v>
+      </c>
+      <c r="E39" s="1">
+        <v>17</v>
+      </c>
+      <c r="I39" s="1">
+        <v>61</v>
+      </c>
+      <c r="J39" s="1">
+        <v>84</v>
+      </c>
+      <c r="K39">
         <v>95</v>
       </c>
-      <c r="D39">
+      <c r="L39">
         <v>13</v>
       </c>
-      <c r="E39">
+      <c r="M39">
         <v>660</v>
       </c>
-      <c r="G39">
+      <c r="O39">
         <v>64</v>
       </c>
-      <c r="H39">
+      <c r="P39">
         <v>263</v>
       </c>
-      <c r="I39">
+      <c r="Q39">
         <v>115</v>
       </c>
-      <c r="J39">
+      <c r="R39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40" s="1">
+        <v>17</v>
+      </c>
+      <c r="I40" s="1">
+        <v>73</v>
+      </c>
+      <c r="J40" s="1">
+        <v>83</v>
+      </c>
+      <c r="K40">
         <v>87</v>
       </c>
-      <c r="D40">
+      <c r="L40">
         <v>12</v>
       </c>
-      <c r="E40">
+      <c r="M40">
         <v>711</v>
       </c>
-      <c r="G40">
+      <c r="O40">
         <v>80</v>
       </c>
-      <c r="H40">
+      <c r="P40">
         <v>334</v>
       </c>
-      <c r="I40">
+      <c r="Q40">
         <v>119</v>
       </c>
-      <c r="J40">
+      <c r="R40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>49</v>
+      </c>
+      <c r="E41" s="1">
+        <v>17</v>
+      </c>
+      <c r="I41" s="1">
+        <v>62</v>
+      </c>
+      <c r="J41" s="1">
+        <v>79</v>
+      </c>
+      <c r="K41">
         <v>93</v>
       </c>
-      <c r="D41">
+      <c r="L41">
         <v>8</v>
       </c>
-      <c r="E41">
+      <c r="M41">
         <v>729</v>
       </c>
-      <c r="G41">
+      <c r="O41">
         <v>101</v>
       </c>
-      <c r="H41">
+      <c r="P41">
         <v>362</v>
       </c>
-      <c r="I41">
+      <c r="Q41">
         <v>79</v>
       </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>42</v>
+      </c>
+      <c r="E42" s="1">
+        <v>11</v>
+      </c>
+      <c r="I42" s="1">
+        <v>80</v>
+      </c>
+      <c r="J42" s="1">
+        <v>97</v>
+      </c>
+      <c r="K42">
         <v>78</v>
       </c>
-      <c r="D42">
+      <c r="L42">
         <v>15</v>
       </c>
-      <c r="E42">
+      <c r="M42">
         <v>702</v>
       </c>
-      <c r="G42">
+      <c r="O42">
         <v>72</v>
       </c>
-      <c r="H42">
+      <c r="P42">
         <v>306</v>
       </c>
-      <c r="I42">
+      <c r="Q42">
         <v>121</v>
       </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R42">
+        <v>3</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
+        <v>80</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43" s="1">
+        <v>24</v>
+      </c>
+      <c r="I43" s="1">
+        <v>65</v>
+      </c>
+      <c r="J43" s="1">
+        <v>78</v>
+      </c>
+      <c r="K43">
         <v>98</v>
       </c>
-      <c r="D43">
+      <c r="L43">
         <v>13</v>
       </c>
-      <c r="E43">
+      <c r="M43">
         <v>676</v>
       </c>
-      <c r="G43">
+      <c r="O43">
         <v>55</v>
       </c>
-      <c r="H43">
+      <c r="P43">
         <v>300</v>
       </c>
-      <c r="I43">
+      <c r="Q43">
         <v>128</v>
       </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>7</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1">
+        <v>30</v>
+      </c>
+      <c r="I44" s="1">
+        <v>69</v>
+      </c>
+      <c r="J44" s="1">
+        <v>65</v>
+      </c>
+      <c r="K44">
         <v>92</v>
       </c>
-      <c r="D44">
+      <c r="L44">
         <v>8</v>
       </c>
-      <c r="E44">
+      <c r="M44">
         <v>731</v>
       </c>
-      <c r="G44">
+      <c r="O44">
         <v>63</v>
       </c>
-      <c r="H44">
+      <c r="P44">
         <v>327</v>
       </c>
-      <c r="I44">
+      <c r="Q44">
         <v>124</v>
       </c>
-      <c r="J44">
+      <c r="R44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S44">
+        <v>6</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
+        <v>86</v>
+      </c>
+      <c r="D45">
+        <v>57</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+      <c r="I45" s="1">
+        <v>49</v>
+      </c>
+      <c r="J45" s="1">
+        <v>61</v>
+      </c>
+      <c r="K45">
         <v>100</v>
       </c>
-      <c r="D45">
+      <c r="L45">
         <v>11</v>
       </c>
-      <c r="E45">
+      <c r="M45">
         <v>656</v>
       </c>
-      <c r="G45">
+      <c r="O45">
         <v>47</v>
       </c>
-      <c r="H45">
+      <c r="P45">
         <v>295</v>
       </c>
-      <c r="I45">
+      <c r="Q45">
         <v>108</v>
       </c>
-      <c r="J45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>6</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>9</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>57</v>
+      </c>
+      <c r="E46" s="1">
+        <v>16</v>
+      </c>
+      <c r="I46" s="1">
+        <v>79</v>
+      </c>
+      <c r="J46" s="1">
+        <v>87</v>
+      </c>
+      <c r="K46">
         <v>91</v>
       </c>
-      <c r="D46">
+      <c r="L46">
         <v>16</v>
       </c>
-      <c r="E46">
+      <c r="M46">
         <v>744</v>
       </c>
-      <c r="G46">
+      <c r="O46">
         <v>65</v>
       </c>
-      <c r="H46">
+      <c r="P46">
         <v>351</v>
       </c>
-      <c r="I46">
+      <c r="Q46">
         <v>139</v>
       </c>
-      <c r="J46">
+      <c r="R46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>55</v>
+      </c>
+      <c r="E47" s="1">
+        <v>21</v>
+      </c>
+      <c r="I47" s="1">
+        <v>74</v>
+      </c>
+      <c r="J47" s="1">
+        <v>94</v>
+      </c>
+      <c r="K47">
         <v>117</v>
       </c>
-      <c r="D47">
+      <c r="L47">
         <v>15</v>
       </c>
-      <c r="E47">
+      <c r="M47">
         <v>794</v>
       </c>
-      <c r="G47">
+      <c r="O47">
         <v>60</v>
       </c>
-      <c r="H47">
+      <c r="P47">
         <v>338</v>
       </c>
-      <c r="I47">
+      <c r="Q47">
         <v>100</v>
       </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>11</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
+        <v>86</v>
+      </c>
+      <c r="D48">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1">
+        <v>20</v>
+      </c>
+      <c r="I48" s="1">
+        <v>89</v>
+      </c>
+      <c r="J48" s="1">
+        <v>80</v>
+      </c>
+      <c r="K48">
         <v>100</v>
       </c>
-      <c r="D48">
+      <c r="L48">
         <v>8</v>
       </c>
-      <c r="E48">
+      <c r="M48">
         <v>670</v>
       </c>
-      <c r="G48">
+      <c r="O48">
         <v>94</v>
       </c>
-      <c r="H48">
+      <c r="P48">
         <v>310</v>
       </c>
-      <c r="I48">
+      <c r="Q48">
         <v>106</v>
       </c>
-      <c r="J48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R48">
+        <v>3</v>
+      </c>
+      <c r="S48">
+        <v>4</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>12</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
+        <v>81</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49" s="1">
+        <v>18</v>
+      </c>
+      <c r="I49" s="1">
+        <v>91</v>
+      </c>
+      <c r="J49" s="1">
+        <v>90</v>
+      </c>
+      <c r="K49">
         <v>111</v>
       </c>
-      <c r="D49">
+      <c r="L49">
         <v>14</v>
       </c>
-      <c r="E49">
+      <c r="M49">
         <v>626</v>
       </c>
-      <c r="G49">
+      <c r="O49">
         <v>67</v>
       </c>
-      <c r="H49">
+      <c r="P49">
         <v>262</v>
       </c>
-      <c r="I49">
+      <c r="Q49">
         <v>107</v>
       </c>
-      <c r="J49">
+      <c r="R49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2017</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
+        <v>92</v>
+      </c>
+      <c r="E50" s="1">
+        <v>15</v>
+      </c>
+      <c r="I50" s="1">
+        <v>75</v>
+      </c>
+      <c r="J50" s="1">
+        <v>97</v>
+      </c>
+      <c r="K50">
         <v>111</v>
       </c>
-      <c r="D50">
+      <c r="L50">
         <v>16</v>
       </c>
-      <c r="E50">
+      <c r="M50">
         <v>768</v>
       </c>
-      <c r="F50">
+      <c r="N50">
         <v>37</v>
       </c>
-      <c r="G50">
+      <c r="O50">
         <v>94</v>
       </c>
-      <c r="H50">
+      <c r="P50">
         <v>342</v>
       </c>
-      <c r="I50">
+      <c r="Q50">
         <v>120</v>
       </c>
-      <c r="J50">
+      <c r="R50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S50">
+        <v>6</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>2</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1">
+        <v>11</v>
+      </c>
+      <c r="I51" s="1">
+        <v>67</v>
+      </c>
+      <c r="J51" s="1">
+        <v>87</v>
+      </c>
+      <c r="K51">
         <v>82</v>
       </c>
-      <c r="D51">
+      <c r="L51">
         <v>11</v>
       </c>
-      <c r="E51">
+      <c r="M51">
         <v>602</v>
       </c>
-      <c r="F51">
+      <c r="N51">
         <v>16</v>
       </c>
-      <c r="G51">
+      <c r="O51">
         <v>49</v>
       </c>
-      <c r="H51">
+      <c r="P51">
         <v>269</v>
       </c>
-      <c r="I51">
+      <c r="Q51">
         <v>98</v>
       </c>
-      <c r="J51">
+      <c r="R51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1">
+        <v>24</v>
+      </c>
+      <c r="I52" s="1">
+        <v>94</v>
+      </c>
+      <c r="J52" s="1">
+        <v>123</v>
+      </c>
+      <c r="K52">
         <v>113</v>
       </c>
-      <c r="D52">
+      <c r="L52">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="M52">
         <v>772</v>
       </c>
-      <c r="F52">
+      <c r="N52">
         <v>33</v>
       </c>
-      <c r="G52">
+      <c r="O52">
         <v>69</v>
       </c>
-      <c r="H52">
+      <c r="P52">
         <v>336</v>
       </c>
-      <c r="I52">
+      <c r="Q52">
         <v>127</v>
       </c>
-      <c r="J52">
+      <c r="R52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>4</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
+        <v>84</v>
+      </c>
+      <c r="E53" s="1">
+        <v>16</v>
+      </c>
+      <c r="I53" s="1">
+        <v>105</v>
+      </c>
+      <c r="J53" s="1">
+        <v>143</v>
+      </c>
+      <c r="K53">
         <v>97</v>
       </c>
-      <c r="D53">
+      <c r="L53">
         <v>10</v>
       </c>
-      <c r="E53">
+      <c r="M53">
         <v>726</v>
       </c>
-      <c r="F53">
+      <c r="N53">
         <v>38</v>
       </c>
-      <c r="G53">
+      <c r="O53">
         <v>90</v>
       </c>
-      <c r="H53">
+      <c r="P53">
         <v>322</v>
       </c>
-      <c r="I53">
+      <c r="Q53">
         <v>147</v>
       </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
+        <v>99</v>
+      </c>
+      <c r="E54" s="1">
+        <v>20</v>
+      </c>
+      <c r="I54" s="1">
+        <v>86</v>
+      </c>
+      <c r="J54" s="1">
+        <v>133</v>
+      </c>
+      <c r="K54">
         <v>116</v>
       </c>
-      <c r="D54">
+      <c r="L54">
         <v>11</v>
       </c>
-      <c r="E54">
+      <c r="M54">
         <v>778</v>
       </c>
-      <c r="F54">
+      <c r="N54">
         <v>26</v>
       </c>
-      <c r="G54">
+      <c r="O54">
         <v>65</v>
       </c>
-      <c r="H54">
+      <c r="P54">
         <v>330</v>
       </c>
-      <c r="I54">
+      <c r="Q54">
         <v>173</v>
       </c>
-      <c r="J54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>6</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
+        <v>67</v>
+      </c>
+      <c r="E55" s="1">
+        <v>23</v>
+      </c>
+      <c r="I55" s="1">
+        <v>91</v>
+      </c>
+      <c r="J55" s="1">
+        <v>128</v>
+      </c>
+      <c r="K55">
         <v>89</v>
       </c>
-      <c r="D55">
+      <c r="L55">
         <v>14</v>
       </c>
-      <c r="E55">
+      <c r="M55">
         <v>681</v>
       </c>
-      <c r="F55">
+      <c r="N55">
         <v>24</v>
       </c>
-      <c r="G55">
+      <c r="O55">
         <v>59</v>
       </c>
-      <c r="H55">
+      <c r="P55">
         <v>315</v>
       </c>
-      <c r="I55">
+      <c r="Q55">
         <v>188</v>
       </c>
-      <c r="J55">
+      <c r="R55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>7</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
+        <v>87</v>
+      </c>
+      <c r="E56" s="1">
+        <v>22</v>
+      </c>
+      <c r="I56" s="1">
+        <v>92</v>
+      </c>
+      <c r="J56" s="1">
+        <v>156</v>
+      </c>
+      <c r="K56">
         <v>101</v>
       </c>
-      <c r="D56">
+      <c r="L56">
         <v>8</v>
       </c>
-      <c r="E56">
+      <c r="M56">
         <v>715</v>
       </c>
-      <c r="F56">
+      <c r="N56">
         <v>22</v>
       </c>
-      <c r="G56">
+      <c r="O56">
         <v>52</v>
       </c>
-      <c r="H56">
+      <c r="P56">
         <v>318</v>
       </c>
-      <c r="I56">
+      <c r="Q56">
         <v>139</v>
       </c>
-      <c r="J56">
+      <c r="R56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>8</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
+        <v>76</v>
+      </c>
+      <c r="E57" s="1">
+        <v>20</v>
+      </c>
+      <c r="I57" s="1">
+        <v>81</v>
+      </c>
+      <c r="J57" s="1">
+        <v>131</v>
+      </c>
+      <c r="K57">
         <v>96</v>
       </c>
-      <c r="D57">
+      <c r="L57">
         <v>15</v>
       </c>
-      <c r="E57">
+      <c r="M57">
         <v>867</v>
       </c>
-      <c r="F57">
+      <c r="N57">
         <v>29</v>
       </c>
-      <c r="G57">
+      <c r="O57">
         <v>75</v>
       </c>
-      <c r="H57">
+      <c r="P57">
         <v>413</v>
       </c>
-      <c r="I57">
+      <c r="Q57">
         <v>136</v>
       </c>
-      <c r="J57">
+      <c r="R57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S57">
+        <v>6</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>9</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
+        <v>88</v>
+      </c>
+      <c r="E58" s="1">
+        <v>26</v>
+      </c>
+      <c r="I58" s="1">
+        <v>78</v>
+      </c>
+      <c r="J58" s="1">
+        <v>128</v>
+      </c>
+      <c r="K58">
         <v>109</v>
       </c>
-      <c r="D58">
+      <c r="L58">
         <v>18</v>
       </c>
-      <c r="E58">
+      <c r="M58">
         <v>932</v>
       </c>
-      <c r="F58">
+      <c r="N58">
         <v>35</v>
       </c>
-      <c r="G58">
+      <c r="O58">
         <v>82</v>
       </c>
-      <c r="H58">
+      <c r="P58">
         <v>440</v>
       </c>
-      <c r="I58">
+      <c r="Q58">
         <v>122</v>
       </c>
-      <c r="J58">
+      <c r="R58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S58">
+        <v>3</v>
+      </c>
+      <c r="T58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
+        <v>88</v>
+      </c>
+      <c r="E59" s="1">
+        <v>28</v>
+      </c>
+      <c r="I59" s="1">
+        <v>107</v>
+      </c>
+      <c r="J59" s="1">
+        <v>135</v>
+      </c>
+      <c r="K59">
         <v>105</v>
       </c>
-      <c r="D59">
+      <c r="L59">
         <v>11</v>
       </c>
-      <c r="E59">
+      <c r="M59">
         <v>858</v>
       </c>
-      <c r="F59">
+      <c r="N59">
         <v>34</v>
       </c>
-      <c r="G59">
+      <c r="O59">
         <v>84</v>
       </c>
-      <c r="H59">
+      <c r="P59">
         <v>389</v>
       </c>
-      <c r="I59">
+      <c r="Q59">
         <v>130</v>
       </c>
-      <c r="J59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>6</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>11</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1">
+        <v>23</v>
+      </c>
+      <c r="I60" s="1">
+        <v>89</v>
+      </c>
+      <c r="J60" s="1">
+        <v>139</v>
+      </c>
+      <c r="K60">
         <v>119</v>
       </c>
-      <c r="D60">
+      <c r="L60">
         <v>15</v>
       </c>
-      <c r="E60">
+      <c r="M60">
         <v>785</v>
       </c>
-      <c r="F60">
+      <c r="N60">
         <v>45</v>
       </c>
-      <c r="G60">
+      <c r="O60">
         <v>99</v>
       </c>
-      <c r="H60">
+      <c r="P60">
         <v>395</v>
       </c>
-      <c r="I60">
+      <c r="Q60">
         <v>140</v>
       </c>
-      <c r="J60">
+      <c r="R60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>12</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
+        <v>88</v>
+      </c>
+      <c r="E61" s="1">
+        <v>13</v>
+      </c>
+      <c r="I61" s="1">
+        <v>94</v>
+      </c>
+      <c r="J61" s="1">
+        <v>125</v>
+      </c>
+      <c r="K61">
         <v>121</v>
       </c>
-      <c r="D61">
+      <c r="L61">
         <v>26</v>
       </c>
-      <c r="E61">
+      <c r="M61">
         <v>702</v>
       </c>
-      <c r="F61">
+      <c r="N61">
         <v>41</v>
       </c>
-      <c r="G61">
+      <c r="O61">
         <v>77</v>
       </c>
-      <c r="H61">
+      <c r="P61">
         <v>289</v>
       </c>
-      <c r="I61">
+      <c r="Q61">
         <v>132</v>
       </c>
-      <c r="J61">
+      <c r="R61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
+        <v>82</v>
+      </c>
+      <c r="D62">
+        <v>55</v>
+      </c>
+      <c r="E62">
+        <v>37</v>
+      </c>
+      <c r="I62" s="1">
+        <v>83</v>
+      </c>
+      <c r="J62" s="1">
+        <v>152</v>
+      </c>
+      <c r="K62">
         <v>96</v>
       </c>
-      <c r="D62">
+      <c r="L62">
         <v>12</v>
       </c>
-      <c r="E62">
+      <c r="M62">
         <v>778</v>
       </c>
-      <c r="F62">
+      <c r="N62">
         <v>37</v>
       </c>
-      <c r="G62">
+      <c r="O62">
         <v>95</v>
       </c>
-      <c r="H62">
+      <c r="P62">
         <v>279</v>
       </c>
-      <c r="I62">
+      <c r="Q62">
         <v>138</v>
       </c>
-      <c r="J62">
+      <c r="R62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S62">
+        <v>7</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>71</v>
+      </c>
+      <c r="E63">
+        <v>19</v>
+      </c>
+      <c r="I63" s="1">
+        <v>91</v>
+      </c>
+      <c r="J63" s="1">
         <v>116</v>
       </c>
-      <c r="D63">
+      <c r="K63">
+        <v>116</v>
+      </c>
+      <c r="L63">
         <v>17</v>
       </c>
-      <c r="E63">
+      <c r="M63">
         <v>708</v>
       </c>
-      <c r="F63">
+      <c r="N63">
         <v>60</v>
       </c>
-      <c r="G63">
+      <c r="O63">
         <v>98</v>
       </c>
-      <c r="H63">
+      <c r="P63">
         <v>280</v>
       </c>
-      <c r="I63">
+      <c r="Q63">
         <v>127</v>
       </c>
-      <c r="J63">
+      <c r="R63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
+        <v>97</v>
+      </c>
+      <c r="D64">
+        <v>61</v>
+      </c>
+      <c r="E64">
+        <v>27</v>
+      </c>
+      <c r="I64" s="1">
+        <v>102</v>
+      </c>
+      <c r="J64" s="1">
+        <v>144</v>
+      </c>
+      <c r="K64">
         <v>111</v>
       </c>
-      <c r="D64">
+      <c r="L64">
         <v>11</v>
       </c>
-      <c r="E64">
+      <c r="M64">
         <v>810</v>
       </c>
-      <c r="F64">
+      <c r="N64">
         <v>29</v>
       </c>
-      <c r="G64">
+      <c r="O64">
         <v>76</v>
       </c>
-      <c r="H64">
+      <c r="P64">
         <v>306</v>
       </c>
-      <c r="I64">
+      <c r="Q64">
         <v>181</v>
       </c>
-      <c r="J64">
+      <c r="R64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S64">
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
+        <v>79</v>
+      </c>
+      <c r="D65">
+        <v>65</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
+      </c>
+      <c r="I65" s="1">
+        <v>99</v>
+      </c>
+      <c r="J65" s="1">
+        <v>118</v>
+      </c>
+      <c r="K65">
         <v>110</v>
       </c>
-      <c r="D65">
+      <c r="L65">
         <v>20</v>
       </c>
-      <c r="E65">
+      <c r="M65">
         <v>757</v>
       </c>
-      <c r="F65">
+      <c r="N65">
         <v>19</v>
       </c>
-      <c r="G65">
+      <c r="O65">
         <v>75</v>
       </c>
-      <c r="H65">
+      <c r="P65">
         <v>307</v>
       </c>
-      <c r="I65">
+      <c r="Q65">
         <v>141</v>
       </c>
-      <c r="J65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R65">
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+      <c r="T65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
+        <v>88</v>
+      </c>
+      <c r="D66">
+        <v>59</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="I66" s="1">
+        <v>87</v>
+      </c>
+      <c r="J66" s="1">
+        <v>126</v>
+      </c>
+      <c r="K66">
         <v>107</v>
       </c>
-      <c r="D66">
+      <c r="L66">
         <v>15</v>
       </c>
-      <c r="E66">
+      <c r="M66">
         <v>789</v>
       </c>
-      <c r="F66">
+      <c r="N66">
         <v>28</v>
       </c>
-      <c r="G66">
+      <c r="O66">
         <v>100</v>
       </c>
-      <c r="H66">
+      <c r="P66">
         <v>344</v>
       </c>
-      <c r="I66">
+      <c r="Q66">
         <v>131</v>
       </c>
-      <c r="J66">
+      <c r="R66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>6</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
+        <v>96</v>
+      </c>
+      <c r="D67">
+        <v>46</v>
+      </c>
+      <c r="E67">
+        <v>17</v>
+      </c>
+      <c r="I67" s="1">
+        <v>119</v>
+      </c>
+      <c r="J67" s="1">
+        <v>151</v>
+      </c>
+      <c r="K67">
         <v>128</v>
       </c>
-      <c r="D67">
+      <c r="L67">
         <v>23</v>
       </c>
-      <c r="E67">
+      <c r="M67">
         <v>820</v>
       </c>
-      <c r="F67">
+      <c r="N67">
         <v>31</v>
       </c>
-      <c r="G67">
+      <c r="O67">
         <v>75</v>
       </c>
-      <c r="H67">
+      <c r="P67">
         <v>341</v>
       </c>
-      <c r="I67">
+      <c r="Q67">
         <v>216</v>
       </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>7</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1">
+        <v>104</v>
+      </c>
+      <c r="J68" s="1">
+        <v>182</v>
+      </c>
+      <c r="K68">
         <v>101</v>
       </c>
-      <c r="D68">
+      <c r="L68">
         <v>12</v>
       </c>
-      <c r="E68">
+      <c r="M68">
         <v>721</v>
       </c>
-      <c r="F68">
+      <c r="N68">
         <v>33</v>
       </c>
-      <c r="G68">
+      <c r="O68">
         <v>80</v>
       </c>
-      <c r="H68">
+      <c r="P68">
         <v>337</v>
       </c>
-      <c r="I68">
+      <c r="Q68">
         <v>127</v>
       </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>8</v>
+      </c>
+      <c r="T68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>8</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
+        <v>85</v>
+      </c>
+      <c r="D69">
+        <v>51</v>
+      </c>
+      <c r="E69">
+        <v>24</v>
+      </c>
+      <c r="I69" s="1">
+        <v>115</v>
+      </c>
+      <c r="J69" s="1">
+        <v>185</v>
+      </c>
+      <c r="K69">
         <v>107</v>
       </c>
-      <c r="D69">
+      <c r="L69">
         <v>17</v>
       </c>
-      <c r="E69">
+      <c r="M69">
         <v>854</v>
       </c>
-      <c r="F69">
+      <c r="N69">
         <v>27</v>
       </c>
-      <c r="G69">
+      <c r="O69">
         <v>69</v>
       </c>
-      <c r="H69">
+      <c r="P69">
         <v>359</v>
       </c>
-      <c r="I69">
+      <c r="Q69">
         <v>121</v>
       </c>
-      <c r="J69">
+      <c r="R69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>9</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
+        <v>84</v>
+      </c>
+      <c r="D70">
+        <v>58</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+      <c r="I70" s="1">
+        <v>96</v>
+      </c>
+      <c r="J70" s="1">
+        <v>163</v>
+      </c>
+      <c r="K70">
         <v>102</v>
       </c>
-      <c r="D70">
+      <c r="L70">
         <v>14</v>
       </c>
-      <c r="E70">
+      <c r="M70">
         <v>781</v>
       </c>
-      <c r="F70">
+      <c r="N70">
         <v>39</v>
       </c>
-      <c r="G70">
+      <c r="O70">
         <v>96</v>
       </c>
-      <c r="H70">
+      <c r="P70">
         <v>370</v>
       </c>
-      <c r="I70">
+      <c r="Q70">
         <v>109</v>
       </c>
-      <c r="J70">
+      <c r="R70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S70">
+        <v>7</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
+        <v>83</v>
+      </c>
+      <c r="D71">
+        <v>58</v>
+      </c>
+      <c r="E71">
+        <v>23</v>
+      </c>
+      <c r="I71" s="1">
+        <v>92</v>
+      </c>
+      <c r="J71" s="1">
+        <v>164</v>
+      </c>
+      <c r="K71">
         <v>105</v>
       </c>
-      <c r="D71">
+      <c r="L71">
         <v>17</v>
       </c>
-      <c r="E71">
+      <c r="M71">
         <v>833</v>
       </c>
-      <c r="F71">
+      <c r="N71">
         <v>34</v>
       </c>
-      <c r="G71">
+      <c r="O71">
         <v>100</v>
       </c>
-      <c r="H71">
+      <c r="P71">
         <v>367</v>
       </c>
-      <c r="I71">
+      <c r="Q71">
         <v>113</v>
       </c>
-      <c r="J71">
+      <c r="R71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S71">
+        <v>7</v>
+      </c>
+      <c r="T71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>11</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
+        <v>73</v>
+      </c>
+      <c r="D72">
+        <v>45</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="I72" s="1">
+        <v>96</v>
+      </c>
+      <c r="J72" s="1">
+        <v>116</v>
+      </c>
+      <c r="K72">
         <v>97</v>
       </c>
-      <c r="D72">
+      <c r="L72">
         <v>17</v>
       </c>
-      <c r="E72">
+      <c r="M72">
         <v>762</v>
       </c>
-      <c r="F72">
+      <c r="N72">
         <v>61</v>
       </c>
-      <c r="G72">
+      <c r="O72">
         <v>146</v>
       </c>
-      <c r="H72">
+      <c r="P72">
         <v>358</v>
       </c>
-      <c r="I72">
+      <c r="Q72">
         <v>110</v>
       </c>
-      <c r="J72">
+      <c r="R72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S72">
+        <v>6</v>
+      </c>
+      <c r="T72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>12</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
+        <v>86</v>
+      </c>
+      <c r="D73">
+        <v>58</v>
+      </c>
+      <c r="E73">
+        <v>28</v>
+      </c>
+      <c r="I73" s="1">
+        <v>109</v>
+      </c>
+      <c r="J73" s="1">
+        <v>160</v>
+      </c>
+      <c r="K73">
         <v>110</v>
       </c>
-      <c r="D73">
+      <c r="L73">
         <v>21</v>
       </c>
-      <c r="E73">
+      <c r="M73">
         <v>737</v>
       </c>
-      <c r="F73">
+      <c r="N73">
         <v>70</v>
       </c>
-      <c r="G73">
+      <c r="O73">
         <v>126</v>
       </c>
-      <c r="H73">
+      <c r="P73">
         <v>312</v>
       </c>
-      <c r="I73">
+      <c r="Q73">
         <v>111</v>
       </c>
-      <c r="J73">
+      <c r="R73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S73">
+        <v>6</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2019</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
+        <v>88</v>
+      </c>
+      <c r="D74">
+        <v>62</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
+      <c r="I74" s="1">
+        <v>76</v>
+      </c>
+      <c r="J74" s="1">
+        <v>133</v>
+      </c>
+      <c r="K74">
         <v>105</v>
       </c>
-      <c r="D74">
+      <c r="L74">
         <v>13</v>
       </c>
-      <c r="E74">
+      <c r="M74">
         <v>643</v>
       </c>
-      <c r="F74">
+      <c r="N74">
         <v>30</v>
       </c>
-      <c r="G74">
+      <c r="O74">
         <v>74</v>
       </c>
-      <c r="H74">
+      <c r="P74">
         <v>240</v>
       </c>
-      <c r="I74">
+      <c r="Q74">
         <v>115</v>
       </c>
-      <c r="J74">
+      <c r="R74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>52</v>
+      </c>
+      <c r="E75">
+        <v>27</v>
+      </c>
+      <c r="I75" s="1">
+        <v>83</v>
+      </c>
+      <c r="J75" s="1">
+        <v>132</v>
+      </c>
+      <c r="K75">
         <v>89</v>
       </c>
-      <c r="D75">
+      <c r="L75">
         <v>17</v>
       </c>
-      <c r="E75">
+      <c r="M75">
         <v>601</v>
       </c>
-      <c r="F75">
+      <c r="N75">
         <v>26</v>
       </c>
-      <c r="G75">
+      <c r="O75">
         <v>78</v>
       </c>
-      <c r="H75">
+      <c r="P75">
         <v>226</v>
       </c>
-      <c r="I75">
+      <c r="Q75">
         <v>128</v>
       </c>
-      <c r="J75">
+      <c r="R75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S75">
+        <v>8</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>3</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
+        <v>66</v>
+      </c>
+      <c r="D76">
+        <v>48</v>
+      </c>
+      <c r="E76">
+        <v>28</v>
+      </c>
+      <c r="I76" s="1">
+        <v>116</v>
+      </c>
+      <c r="J76" s="1">
+        <v>182</v>
+      </c>
+      <c r="K76">
         <v>89</v>
       </c>
-      <c r="D76">
+      <c r="L76">
         <v>11</v>
       </c>
-      <c r="E76">
+      <c r="M76">
         <v>758</v>
       </c>
-      <c r="F76">
+      <c r="N76">
         <v>28</v>
       </c>
-      <c r="G76">
+      <c r="O76">
         <v>65</v>
       </c>
-      <c r="H76">
+      <c r="P76">
         <v>311</v>
       </c>
-      <c r="I76">
+      <c r="Q76">
         <v>152</v>
       </c>
-      <c r="J76">
+      <c r="R76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>4</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
+        <v>79</v>
+      </c>
+      <c r="D77">
+        <v>54</v>
+      </c>
+      <c r="E77">
+        <v>13</v>
+      </c>
+      <c r="I77" s="1">
+        <v>84</v>
+      </c>
+      <c r="J77" s="1">
+        <v>164</v>
+      </c>
+      <c r="K77">
         <v>98</v>
       </c>
-      <c r="D77">
+      <c r="L77">
         <v>11</v>
       </c>
-      <c r="E77">
+      <c r="M77">
         <v>747</v>
       </c>
-      <c r="F77">
+      <c r="N77">
         <v>30</v>
       </c>
-      <c r="G77">
+      <c r="O77">
         <v>76</v>
       </c>
-      <c r="H77">
+      <c r="P77">
         <v>324</v>
       </c>
-      <c r="I77">
+      <c r="Q77">
         <v>131</v>
       </c>
-      <c r="J77">
+      <c r="R77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S77">
+        <v>5</v>
+      </c>
+      <c r="T77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>5</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>61</v>
+      </c>
+      <c r="E78">
+        <v>42</v>
+      </c>
+      <c r="I78" s="1">
+        <v>91</v>
+      </c>
+      <c r="J78" s="1">
+        <v>155</v>
+      </c>
+      <c r="K78">
         <v>92</v>
       </c>
-      <c r="D78">
+      <c r="L78">
         <v>12</v>
       </c>
-      <c r="E78">
+      <c r="M78">
         <v>776</v>
       </c>
-      <c r="F78">
+      <c r="N78">
         <v>26</v>
       </c>
-      <c r="G78">
+      <c r="O78">
         <v>71</v>
       </c>
-      <c r="H78">
+      <c r="P78">
         <v>348</v>
       </c>
-      <c r="I78">
+      <c r="Q78">
         <v>86</v>
       </c>
-      <c r="J78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>6</v>
+      </c>
+      <c r="T78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>6</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>58</v>
+      </c>
+      <c r="E79">
+        <v>42</v>
+      </c>
+      <c r="I79" s="1">
+        <v>134</v>
+      </c>
+      <c r="J79" s="1">
+        <v>192</v>
+      </c>
+      <c r="K79">
         <v>99</v>
       </c>
-      <c r="D79">
+      <c r="L79">
         <v>16</v>
       </c>
-      <c r="E79">
+      <c r="M79">
         <v>782</v>
       </c>
-      <c r="F79">
+      <c r="N79">
         <v>34</v>
       </c>
-      <c r="G79">
+      <c r="O79">
         <v>71</v>
       </c>
-      <c r="H79">
+      <c r="P79">
         <v>342</v>
       </c>
-      <c r="I79">
+      <c r="Q79">
         <v>164</v>
       </c>
-      <c r="J79">
+      <c r="R79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S79">
+        <v>7</v>
+      </c>
+      <c r="T79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>7</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <v>63</v>
+      </c>
+      <c r="E80">
+        <v>25</v>
+      </c>
+      <c r="I80" s="1">
+        <v>110</v>
+      </c>
+      <c r="J80" s="1">
+        <v>174</v>
+      </c>
+      <c r="K80">
         <v>104</v>
       </c>
-      <c r="D80">
+      <c r="L80">
         <v>20</v>
       </c>
-      <c r="E80">
+      <c r="M80">
         <v>799</v>
       </c>
-      <c r="F80">
+      <c r="N80">
         <v>34</v>
       </c>
-      <c r="G80">
+      <c r="O80">
         <v>70</v>
       </c>
-      <c r="H80">
+      <c r="P80">
         <v>332</v>
       </c>
-      <c r="I80">
+      <c r="Q80">
         <v>120</v>
       </c>
-      <c r="J80">
+      <c r="R80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S80">
+        <v>9</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>8</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
+        <v>93</v>
+      </c>
+      <c r="D81">
+        <v>60</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="I81" s="1">
+        <v>80</v>
+      </c>
+      <c r="J81" s="1">
+        <v>160</v>
+      </c>
+      <c r="K81">
         <v>121</v>
       </c>
-      <c r="D81">
+      <c r="L81">
         <v>26</v>
       </c>
-      <c r="E81">
+      <c r="M81">
         <v>890</v>
       </c>
-      <c r="F81">
+      <c r="N81">
         <v>36</v>
       </c>
-      <c r="G81">
+      <c r="O81">
         <v>114</v>
       </c>
-      <c r="H81">
+      <c r="P81">
         <v>439</v>
       </c>
-      <c r="I81">
+      <c r="Q81">
         <v>105</v>
       </c>
-      <c r="J81">
+      <c r="R81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S81">
+        <v>9</v>
+      </c>
+      <c r="T81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>9</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
+        <v>97</v>
+      </c>
+      <c r="D82">
+        <v>73</v>
+      </c>
+      <c r="E82">
+        <v>27</v>
+      </c>
+      <c r="I82" s="1">
+        <v>90</v>
+      </c>
+      <c r="J82" s="1">
+        <v>149</v>
+      </c>
+      <c r="K82">
         <v>118</v>
       </c>
-      <c r="D82">
+      <c r="L82">
         <v>17</v>
       </c>
-      <c r="E82">
+      <c r="M82">
         <v>944</v>
       </c>
-      <c r="F82">
+      <c r="N82">
         <v>25</v>
       </c>
-      <c r="G82">
+      <c r="O82">
         <v>101</v>
       </c>
-      <c r="H82">
+      <c r="P82">
         <v>441</v>
       </c>
-      <c r="I82">
+      <c r="Q82">
         <v>103</v>
       </c>
-      <c r="J82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>10</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
+        <v>71</v>
+      </c>
+      <c r="D83">
+        <v>53</v>
+      </c>
+      <c r="E83">
+        <v>24</v>
+      </c>
+      <c r="I83" s="1">
+        <v>109</v>
+      </c>
+      <c r="J83" s="1">
+        <v>170</v>
+      </c>
+      <c r="K83">
         <v>89</v>
       </c>
-      <c r="D83">
+      <c r="L83">
         <v>8</v>
       </c>
-      <c r="E83">
+      <c r="M83">
         <v>916</v>
       </c>
-      <c r="F83">
+      <c r="N83">
         <v>40</v>
       </c>
-      <c r="G83">
+      <c r="O83">
         <v>137</v>
       </c>
-      <c r="H83">
+      <c r="P83">
         <v>434</v>
       </c>
-      <c r="I83">
+      <c r="Q83">
         <v>117</v>
       </c>
-      <c r="J83">
+      <c r="R83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S83">
+        <v>9</v>
+      </c>
+      <c r="T83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>11</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
+        <v>92</v>
+      </c>
+      <c r="D84">
+        <v>68</v>
+      </c>
+      <c r="E84">
+        <v>29</v>
+      </c>
+      <c r="I84" s="1">
+        <v>90</v>
+      </c>
+      <c r="J84" s="1">
+        <v>142</v>
+      </c>
+      <c r="K84">
         <v>118</v>
       </c>
-      <c r="D84">
+      <c r="L84">
         <v>18</v>
       </c>
-      <c r="E84">
+      <c r="M84">
         <v>777</v>
       </c>
-      <c r="F84">
+      <c r="N84">
         <v>49</v>
       </c>
-      <c r="G84">
+      <c r="O84">
         <v>95</v>
       </c>
-      <c r="H84">
+      <c r="P84">
         <v>350</v>
       </c>
-      <c r="I84">
+      <c r="Q84">
         <v>95</v>
       </c>
-      <c r="J84">
+      <c r="R84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S84">
+        <v>4</v>
+      </c>
+      <c r="T84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>12</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
+        <v>67</v>
+      </c>
+      <c r="D85">
+        <v>57</v>
+      </c>
+      <c r="E85">
+        <v>20</v>
+      </c>
+      <c r="I85" s="1">
+        <v>91</v>
+      </c>
+      <c r="J85" s="1">
+        <v>128</v>
+      </c>
+      <c r="K85">
         <v>89</v>
       </c>
-      <c r="D85">
+      <c r="L85">
         <v>16</v>
       </c>
-      <c r="E85">
+      <c r="M85">
         <v>667</v>
       </c>
-      <c r="F85">
+      <c r="N85">
         <v>46</v>
       </c>
-      <c r="G85">
+      <c r="O85">
         <v>99</v>
       </c>
-      <c r="H85">
+      <c r="P85">
         <v>311</v>
       </c>
-      <c r="I85">
+      <c r="Q85">
         <v>88</v>
       </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2020</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
+        <v>91</v>
+      </c>
+      <c r="D86">
+        <v>65</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+      <c r="I86" s="1">
+        <v>74</v>
+      </c>
+      <c r="J86" s="1">
+        <v>105</v>
+      </c>
+      <c r="K86">
         <v>116</v>
       </c>
-      <c r="D86">
+      <c r="L86">
         <v>17</v>
       </c>
-      <c r="E86">
+      <c r="M86">
         <v>714</v>
       </c>
-      <c r="F86">
+      <c r="N86">
         <v>23</v>
       </c>
-      <c r="G86">
+      <c r="O86">
         <v>55</v>
       </c>
-      <c r="H86">
+      <c r="P86">
         <v>283</v>
       </c>
-      <c r="I86">
+      <c r="Q86">
         <v>89</v>
       </c>
-      <c r="J86">
+      <c r="R86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>2</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <v>54</v>
+      </c>
+      <c r="E87">
+        <v>14</v>
+      </c>
+      <c r="I87" s="1">
+        <v>73</v>
+      </c>
+      <c r="J87" s="1">
+        <v>119</v>
+      </c>
+      <c r="K87">
         <v>114</v>
       </c>
-      <c r="D87">
+      <c r="L87">
         <v>17</v>
       </c>
-      <c r="E87">
+      <c r="M87">
         <v>793</v>
       </c>
-      <c r="F87">
+      <c r="N87">
         <v>30</v>
       </c>
-      <c r="G87">
+      <c r="O87">
         <v>101</v>
       </c>
-      <c r="H87">
+      <c r="P87">
         <v>334</v>
       </c>
-      <c r="I87">
+      <c r="Q87">
         <v>87</v>
       </c>
-      <c r="J87">
+      <c r="R87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>3</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
+        <v>71</v>
+      </c>
+      <c r="D88">
+        <v>64</v>
+      </c>
+      <c r="E88">
+        <v>31</v>
+      </c>
+      <c r="I88" s="1">
+        <v>54</v>
+      </c>
+      <c r="J88" s="1">
+        <v>89</v>
+      </c>
+      <c r="K88">
         <v>96</v>
       </c>
-      <c r="D88">
+      <c r="L88">
         <v>17</v>
       </c>
-      <c r="E88">
+      <c r="M88">
         <v>653</v>
       </c>
-      <c r="F88">
+      <c r="N88">
         <v>24</v>
       </c>
-      <c r="G88">
+      <c r="O88">
         <v>60</v>
       </c>
-      <c r="H88">
+      <c r="P88">
         <v>262</v>
       </c>
-      <c r="I88">
+      <c r="Q88">
         <v>85</v>
       </c>
-      <c r="J88">
+      <c r="R88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S88">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>4</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
+        <v>93</v>
+      </c>
+      <c r="D89">
+        <v>82</v>
+      </c>
+      <c r="E89">
+        <v>18</v>
+      </c>
+      <c r="I89" s="1">
+        <v>51</v>
+      </c>
+      <c r="J89" s="1">
+        <v>113</v>
+      </c>
+      <c r="K89">
         <v>125</v>
       </c>
-      <c r="D89">
+      <c r="L89">
         <v>21</v>
       </c>
-      <c r="E89">
+      <c r="M89">
         <v>722</v>
       </c>
-      <c r="F89">
+      <c r="N89">
         <v>28</v>
       </c>
-      <c r="G89">
+      <c r="O89">
         <v>63</v>
       </c>
-      <c r="H89">
+      <c r="P89">
         <v>263</v>
       </c>
-      <c r="I89">
+      <c r="Q89">
         <v>88</v>
       </c>
-      <c r="J89">
+      <c r="R89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S89">
+        <v>7</v>
+      </c>
+      <c r="T89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>5</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
+        <v>76</v>
+      </c>
+      <c r="D90">
+        <v>66</v>
+      </c>
+      <c r="E90">
+        <v>19</v>
+      </c>
+      <c r="I90" s="1">
+        <v>83</v>
+      </c>
+      <c r="J90" s="1">
+        <v>155</v>
+      </c>
+      <c r="K90">
         <v>10</v>
       </c>
-      <c r="D90">
+      <c r="L90">
         <v>22</v>
       </c>
-      <c r="E90">
+      <c r="M90">
         <v>788</v>
       </c>
-      <c r="F90">
+      <c r="N90">
         <v>14</v>
       </c>
-      <c r="G90">
+      <c r="O90">
         <v>45</v>
       </c>
-      <c r="H90">
+      <c r="P90">
         <v>306</v>
       </c>
-      <c r="I90">
+      <c r="Q90">
         <v>136</v>
       </c>
-      <c r="J90">
+      <c r="R90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S90">
+        <v>10</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>6</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <v>71</v>
+      </c>
+      <c r="E91">
+        <v>21</v>
+      </c>
+      <c r="I91" s="1">
+        <v>75</v>
+      </c>
+      <c r="J91" s="1">
+        <v>132</v>
+      </c>
+      <c r="K91">
         <v>124</v>
       </c>
-      <c r="D91">
+      <c r="L91">
         <v>19</v>
       </c>
-      <c r="E91">
+      <c r="M91">
         <v>770</v>
       </c>
-      <c r="F91">
+      <c r="N91">
         <v>35</v>
       </c>
-      <c r="G91">
+      <c r="O91">
         <v>76</v>
       </c>
-      <c r="H91">
+      <c r="P91">
         <v>303</v>
       </c>
-      <c r="I91">
+      <c r="Q91">
         <v>92</v>
       </c>
-      <c r="J91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>5</v>
+      </c>
+      <c r="T91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>7</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
+        <v>93</v>
+      </c>
+      <c r="D92">
+        <v>65</v>
+      </c>
+      <c r="E92">
+        <v>17</v>
+      </c>
+      <c r="I92" s="1">
+        <v>54</v>
+      </c>
+      <c r="J92" s="1">
+        <v>118</v>
+      </c>
+      <c r="K92">
         <v>111</v>
       </c>
-      <c r="D92">
+      <c r="L92">
         <v>15</v>
       </c>
-      <c r="E92">
+      <c r="M92">
         <v>825</v>
       </c>
-      <c r="F92">
+      <c r="N92">
         <v>35</v>
       </c>
-      <c r="G92">
+      <c r="O92">
         <v>99</v>
       </c>
-      <c r="H92">
+      <c r="P92">
         <v>355</v>
       </c>
-      <c r="I92">
+      <c r="Q92">
         <v>114</v>
       </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>7</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>8</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
+        <v>68</v>
+      </c>
+      <c r="D93">
+        <v>63</v>
+      </c>
+      <c r="E93">
+        <v>13</v>
+      </c>
+      <c r="I93" s="1">
+        <v>69</v>
+      </c>
+      <c r="J93" s="1">
+        <v>113</v>
+      </c>
+      <c r="K93">
         <v>92</v>
       </c>
-      <c r="D93">
+      <c r="L93">
         <v>17</v>
       </c>
-      <c r="E93">
+      <c r="M93">
         <v>862</v>
       </c>
-      <c r="F93">
+      <c r="N93">
         <v>41</v>
       </c>
-      <c r="G93">
+      <c r="O93">
         <v>102</v>
       </c>
-      <c r="H93">
+      <c r="P93">
         <v>415</v>
       </c>
-      <c r="I93">
+      <c r="Q93">
         <v>90</v>
       </c>
-      <c r="J93">
+      <c r="R93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S93">
+        <v>3</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>9</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
+        <v>80</v>
+      </c>
+      <c r="D94">
+        <v>61</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+      <c r="I94" s="1">
+        <v>78</v>
+      </c>
+      <c r="J94" s="1">
+        <v>137</v>
+      </c>
+      <c r="K94">
         <v>100</v>
       </c>
-      <c r="D94">
+      <c r="L94">
         <v>17</v>
       </c>
-      <c r="E94">
+      <c r="M94">
         <v>809</v>
       </c>
-      <c r="F94">
+      <c r="N94">
         <v>31</v>
       </c>
-      <c r="G94">
+      <c r="O94">
         <v>85</v>
       </c>
-      <c r="H94">
+      <c r="P94">
         <v>393</v>
       </c>
-      <c r="I94">
+      <c r="Q94">
         <v>97</v>
       </c>
-      <c r="J94">
+      <c r="R94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S94">
+        <v>6</v>
+      </c>
+      <c r="T94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>10</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
+        <v>71</v>
+      </c>
+      <c r="D95">
+        <v>64</v>
+      </c>
+      <c r="E95">
+        <v>31</v>
+      </c>
+      <c r="I95" s="1">
+        <v>50</v>
+      </c>
+      <c r="J95" s="1">
+        <v>120</v>
+      </c>
+      <c r="K95">
         <v>98</v>
       </c>
-      <c r="D95">
+      <c r="L95">
         <v>18</v>
       </c>
-      <c r="E95">
+      <c r="M95">
         <v>888</v>
       </c>
-      <c r="F95">
+      <c r="N95">
         <v>36</v>
       </c>
-      <c r="G95">
+      <c r="O95">
         <v>81</v>
       </c>
-      <c r="H95">
+      <c r="P95">
         <v>411</v>
       </c>
-      <c r="I95">
+      <c r="Q95">
         <v>82</v>
       </c>
-      <c r="J95">
+      <c r="R95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S95">
+        <v>7</v>
+      </c>
+      <c r="T95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>11</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
+        <v>77</v>
+      </c>
+      <c r="D96">
+        <v>71</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="I96" s="1">
+        <v>44</v>
+      </c>
+      <c r="J96" s="1">
+        <v>113</v>
+      </c>
+      <c r="K96">
         <v>96</v>
       </c>
-      <c r="D96">
+      <c r="L96">
         <v>16</v>
       </c>
-      <c r="E96">
+      <c r="M96">
         <v>721</v>
       </c>
-      <c r="F96">
+      <c r="N96">
         <v>29</v>
       </c>
-      <c r="G96">
+      <c r="O96">
         <v>59</v>
       </c>
-      <c r="H96">
+      <c r="P96">
         <v>320</v>
       </c>
-      <c r="I96">
+      <c r="Q96">
         <v>79</v>
       </c>
-      <c r="J96">
+      <c r="R96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S96">
+        <v>3</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>12</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
+        <v>73</v>
+      </c>
+      <c r="D97">
+        <v>60</v>
+      </c>
+      <c r="E97">
+        <v>75</v>
+      </c>
+      <c r="I97" s="1">
+        <v>56</v>
+      </c>
+      <c r="J97" s="1">
+        <v>149</v>
+      </c>
+      <c r="K97">
         <v>81</v>
       </c>
-      <c r="D97">
+      <c r="L97">
         <v>6</v>
       </c>
-      <c r="E97">
+      <c r="M97">
         <v>806</v>
       </c>
-      <c r="F97">
+      <c r="N97">
         <v>33</v>
       </c>
-      <c r="G97">
+      <c r="O97">
         <v>84</v>
       </c>
-      <c r="H97">
+      <c r="P97">
         <v>287</v>
       </c>
-      <c r="I97">
+      <c r="Q97">
         <v>90</v>
       </c>
-      <c r="J97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2021</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
+        <v>87</v>
+      </c>
+      <c r="D98" s="1">
+        <v>83</v>
+      </c>
+      <c r="E98" s="1">
+        <v>36</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1">
+        <v>67</v>
+      </c>
+      <c r="J98" s="1">
+        <v>136</v>
+      </c>
+      <c r="K98">
         <v>112</v>
       </c>
-      <c r="D98">
+      <c r="L98">
         <v>13</v>
       </c>
-      <c r="E98">
+      <c r="M98">
         <v>724</v>
       </c>
-      <c r="F98">
+      <c r="N98">
         <v>26</v>
       </c>
-      <c r="G98">
+      <c r="O98">
         <v>64</v>
       </c>
-      <c r="H98">
+      <c r="P98">
         <v>249</v>
       </c>
-      <c r="I98">
+      <c r="Q98">
         <v>91</v>
       </c>
-      <c r="J98">
+      <c r="R98">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S98">
+        <v>5</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>2</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
+        <v>83</v>
+      </c>
+      <c r="D99" s="1">
+        <v>78</v>
+      </c>
+      <c r="E99" s="1">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1">
+        <v>59</v>
+      </c>
+      <c r="J99" s="1">
+        <v>95</v>
+      </c>
+      <c r="K99">
         <v>108</v>
       </c>
-      <c r="D99">
+      <c r="L99">
         <v>11</v>
       </c>
-      <c r="E99">
+      <c r="M99">
         <v>713</v>
       </c>
-      <c r="F99">
+      <c r="N99">
         <v>24</v>
       </c>
-      <c r="G99">
+      <c r="O99">
         <v>44</v>
       </c>
-      <c r="H99">
+      <c r="P99">
         <v>239</v>
       </c>
-      <c r="I99">
+      <c r="Q99">
         <v>141</v>
       </c>
-      <c r="J99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>7</v>
+      </c>
+      <c r="T99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>3</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
+        <v>105</v>
+      </c>
+      <c r="D100" s="1">
+        <v>84</v>
+      </c>
+      <c r="E100" s="1">
+        <v>22</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1">
+        <v>77</v>
+      </c>
+      <c r="J100" s="1">
+        <v>137</v>
+      </c>
+      <c r="K100">
         <v>130</v>
       </c>
-      <c r="D100">
+      <c r="L100">
         <v>18</v>
       </c>
-      <c r="E100">
+      <c r="M100">
         <v>784</v>
       </c>
-      <c r="F100">
+      <c r="N100">
         <v>18</v>
       </c>
-      <c r="G100">
+      <c r="O100">
         <v>36</v>
       </c>
-      <c r="H100">
+      <c r="P100">
         <v>294</v>
       </c>
-      <c r="I100">
+      <c r="Q100">
         <v>143</v>
       </c>
-      <c r="J100">
+      <c r="R100">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S100">
+        <v>5</v>
+      </c>
+      <c r="T100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>4</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
+        <v>77</v>
+      </c>
+      <c r="D101" s="1">
+        <v>70</v>
+      </c>
+      <c r="E101" s="1">
+        <v>18</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1">
+        <v>59</v>
+      </c>
+      <c r="J101" s="1">
+        <v>130</v>
+      </c>
+      <c r="K101">
         <v>98</v>
       </c>
-      <c r="D101">
+      <c r="L101">
         <v>10</v>
       </c>
-      <c r="E101">
+      <c r="M101">
         <v>848</v>
       </c>
-      <c r="F101">
+      <c r="N101">
         <v>51</v>
       </c>
-      <c r="G101">
+      <c r="O101">
         <v>88</v>
       </c>
-      <c r="H101">
+      <c r="P101">
         <v>367</v>
       </c>
-      <c r="I101">
+      <c r="Q101">
         <v>86</v>
       </c>
-      <c r="J101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>7</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <v>5</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
+        <v>108</v>
+      </c>
+      <c r="D102" s="1">
+        <v>76</v>
+      </c>
+      <c r="E102" s="1">
+        <v>36</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1">
+        <v>87</v>
+      </c>
+      <c r="J102" s="1">
+        <v>137</v>
+      </c>
+      <c r="K102">
         <v>127</v>
       </c>
-      <c r="D102">
+      <c r="L102">
         <v>15</v>
       </c>
-      <c r="E102">
+      <c r="M102">
         <v>974</v>
       </c>
-      <c r="F102">
+      <c r="N102">
         <v>45</v>
       </c>
-      <c r="G102">
+      <c r="O102">
         <v>93</v>
       </c>
-      <c r="H102">
+      <c r="P102">
         <v>448</v>
       </c>
-      <c r="I102">
+      <c r="Q102">
         <v>115</v>
       </c>
-      <c r="J102">
+      <c r="R102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S102">
+        <v>3</v>
+      </c>
+      <c r="T102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>6</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
+        <v>96</v>
+      </c>
+      <c r="D103" s="1">
+        <v>59</v>
+      </c>
+      <c r="E103" s="1">
+        <v>28</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1">
+        <v>73</v>
+      </c>
+      <c r="J103" s="1">
+        <v>122</v>
+      </c>
+      <c r="K103">
         <v>118</v>
       </c>
-      <c r="D103">
+      <c r="L103">
         <v>15</v>
       </c>
-      <c r="E103">
+      <c r="M103">
         <v>1017</v>
       </c>
-      <c r="F103">
+      <c r="N103">
         <v>62</v>
       </c>
-      <c r="G103">
+      <c r="O103">
         <v>115</v>
       </c>
-      <c r="H103">
+      <c r="P103">
         <v>495</v>
       </c>
-      <c r="I103">
+      <c r="Q103">
         <v>85</v>
       </c>
-      <c r="J103">
+      <c r="R103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S103">
+        <v>8</v>
+      </c>
+      <c r="T103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>7</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
+        <v>86</v>
+      </c>
+      <c r="D104" s="1">
+        <v>58</v>
+      </c>
+      <c r="E104" s="1">
+        <v>19</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1">
+        <v>91</v>
+      </c>
+      <c r="J104" s="1">
+        <v>108</v>
+      </c>
+      <c r="K104">
         <v>112</v>
       </c>
-      <c r="D104">
+      <c r="L104">
         <v>21</v>
       </c>
-      <c r="E104">
+      <c r="M104">
         <v>978</v>
       </c>
-      <c r="F104">
+      <c r="N104">
         <v>52</v>
       </c>
-      <c r="G104">
+      <c r="O104">
         <v>110</v>
       </c>
-      <c r="H104">
+      <c r="P104">
         <v>483</v>
       </c>
-      <c r="I104">
+      <c r="Q104">
         <v>80</v>
       </c>
-      <c r="J104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <v>7</v>
+      </c>
+      <c r="T104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>8</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
+        <v>83</v>
+      </c>
+      <c r="D105" s="1">
+        <v>54</v>
+      </c>
+      <c r="E105" s="1">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1">
+        <v>69</v>
+      </c>
+      <c r="J105" s="1">
+        <v>97</v>
+      </c>
+      <c r="K105">
         <v>112</v>
       </c>
-      <c r="D105">
+      <c r="L105">
         <v>22</v>
       </c>
-      <c r="E105">
+      <c r="M105">
         <v>845</v>
       </c>
-      <c r="F105">
+      <c r="N105">
         <v>37</v>
       </c>
-      <c r="G105">
+      <c r="O105">
         <v>83</v>
       </c>
-      <c r="H105">
+      <c r="P105">
         <v>372</v>
       </c>
-      <c r="I105">
+      <c r="Q105">
         <v>77</v>
       </c>
-      <c r="J105">
+      <c r="R105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S105">
+        <v>8</v>
+      </c>
+      <c r="T105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>9</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
+        <v>85</v>
+      </c>
+      <c r="D106" s="1">
+        <v>55</v>
+      </c>
+      <c r="E106" s="1">
+        <v>21</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1">
+        <v>84</v>
+      </c>
+      <c r="J106" s="1">
+        <v>95</v>
+      </c>
+      <c r="K106">
         <v>112</v>
       </c>
-      <c r="D106">
+      <c r="L106">
         <v>21</v>
       </c>
-      <c r="E106">
+      <c r="M106">
         <v>862</v>
       </c>
-      <c r="F106">
+      <c r="N106">
         <v>48</v>
       </c>
-      <c r="G106">
+      <c r="O106">
         <v>86</v>
       </c>
-      <c r="H106">
+      <c r="P106">
         <v>391</v>
       </c>
-      <c r="I106">
+      <c r="Q106">
         <v>91</v>
       </c>
-      <c r="J106">
+      <c r="R106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S106">
+        <v>9</v>
+      </c>
+      <c r="T106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <v>10</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
+        <v>98</v>
+      </c>
+      <c r="D107" s="1">
+        <v>58</v>
+      </c>
+      <c r="E107" s="1">
+        <v>32</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1">
+        <v>98</v>
+      </c>
+      <c r="J107" s="1">
+        <v>113</v>
+      </c>
+      <c r="K107">
         <v>134</v>
       </c>
-      <c r="D107">
+      <c r="L107">
         <v>26</v>
       </c>
-      <c r="E107">
+      <c r="M107">
         <v>886</v>
       </c>
-      <c r="F107">
+      <c r="N107">
         <v>51</v>
       </c>
-      <c r="G107">
+      <c r="O107">
         <v>86</v>
       </c>
-      <c r="H107">
+      <c r="P107">
         <v>404</v>
       </c>
-      <c r="I107">
+      <c r="Q107">
         <v>93</v>
       </c>
-      <c r="J107">
+      <c r="R107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S107">
+        <v>7</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <v>11</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
+        <v>82</v>
+      </c>
+      <c r="D108" s="1">
+        <v>65</v>
+      </c>
+      <c r="E108" s="1">
+        <v>28</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1">
+        <v>88</v>
+      </c>
+      <c r="J108" s="1">
+        <v>107</v>
+      </c>
+      <c r="K108">
         <v>115</v>
       </c>
-      <c r="D108">
+      <c r="L108">
         <v>18</v>
       </c>
-      <c r="E108">
+      <c r="M108">
         <v>687</v>
       </c>
-      <c r="F108">
+      <c r="N108">
         <v>28</v>
       </c>
-      <c r="G108">
+      <c r="O108">
         <v>58</v>
       </c>
-      <c r="H108">
+      <c r="P108">
         <v>262</v>
       </c>
-      <c r="I108">
+      <c r="Q108">
         <v>59</v>
       </c>
-      <c r="J108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>7</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <v>12</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
+        <v>78</v>
+      </c>
+      <c r="D109" s="1">
+        <v>61</v>
+      </c>
+      <c r="E109" s="1">
+        <v>11</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1">
+        <v>82</v>
+      </c>
+      <c r="J109" s="1">
+        <v>94</v>
+      </c>
+      <c r="K109">
         <v>105</v>
       </c>
-      <c r="D109">
+      <c r="L109">
         <v>16</v>
       </c>
-      <c r="E109">
+      <c r="M109">
         <v>718</v>
       </c>
-      <c r="F109">
+      <c r="N109">
         <v>26</v>
       </c>
-      <c r="G109">
+      <c r="O109">
         <v>64</v>
       </c>
-      <c r="H109">
+      <c r="P109">
         <v>297</v>
       </c>
-      <c r="I109">
+      <c r="Q109">
         <v>74</v>
       </c>
-      <c r="J109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>5</v>
+      </c>
+      <c r="T109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2022</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
+        <v>71</v>
+      </c>
+      <c r="D110" s="1">
+        <v>74</v>
+      </c>
+      <c r="E110" s="1">
+        <v>19</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1">
+        <v>55</v>
+      </c>
+      <c r="J110" s="1">
+        <v>92</v>
+      </c>
+      <c r="K110">
         <v>103</v>
       </c>
-      <c r="D110">
+      <c r="L110">
         <v>25</v>
       </c>
-      <c r="E110">
+      <c r="M110">
         <v>670</v>
       </c>
-      <c r="F110">
+      <c r="N110">
         <v>16</v>
       </c>
-      <c r="G110">
+      <c r="O110">
         <v>66</v>
       </c>
-      <c r="H110">
+      <c r="P110">
         <v>255</v>
       </c>
-      <c r="I110">
+      <c r="Q110">
         <v>85</v>
       </c>
-      <c r="J110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <v>2</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
+        <v>70</v>
+      </c>
+      <c r="D111" s="1">
+        <v>54</v>
+      </c>
+      <c r="E111" s="1">
+        <v>28</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1">
+        <v>64</v>
+      </c>
+      <c r="J111" s="1">
+        <v>80</v>
+      </c>
+      <c r="K111">
         <v>89</v>
       </c>
-      <c r="D111">
+      <c r="L111">
         <v>15</v>
       </c>
-      <c r="E111">
+      <c r="M111">
         <v>618</v>
       </c>
-      <c r="F111">
+      <c r="N111">
         <v>18</v>
       </c>
-      <c r="G111">
+      <c r="O111">
         <v>47</v>
       </c>
-      <c r="H111">
+      <c r="P111">
         <v>212</v>
       </c>
-      <c r="I111">
+      <c r="Q111">
         <v>76</v>
       </c>
-      <c r="J111">
+      <c r="R111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S111">
+        <v>8</v>
+      </c>
+      <c r="T111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <v>3</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
+        <v>102</v>
+      </c>
+      <c r="D112" s="1">
+        <v>68</v>
+      </c>
+      <c r="E112" s="1">
+        <v>19</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1">
+        <v>75</v>
+      </c>
+      <c r="J112" s="1">
+        <v>99</v>
+      </c>
+      <c r="K112">
         <v>126</v>
       </c>
-      <c r="D112">
+      <c r="L112">
         <v>21</v>
       </c>
-      <c r="E112">
+      <c r="M112">
         <v>772</v>
       </c>
-      <c r="F112">
+      <c r="N112">
         <v>28</v>
       </c>
-      <c r="G112">
+      <c r="O112">
         <v>65</v>
       </c>
-      <c r="H112">
+      <c r="P112">
         <v>313</v>
       </c>
-      <c r="I112">
+      <c r="Q112">
         <v>83</v>
       </c>
-      <c r="J112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>5</v>
+      </c>
+      <c r="T112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <v>4</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
+        <v>101</v>
+      </c>
+      <c r="D113" s="1">
+        <v>80</v>
+      </c>
+      <c r="E113" s="1">
+        <v>29</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1">
+        <v>94</v>
+      </c>
+      <c r="J113" s="1">
+        <v>103</v>
+      </c>
+      <c r="K113">
         <v>135</v>
       </c>
-      <c r="D113">
+      <c r="L113">
         <v>17</v>
       </c>
-      <c r="E113">
+      <c r="M113">
         <v>745</v>
       </c>
-      <c r="F113">
+      <c r="N113">
         <v>26</v>
       </c>
-      <c r="G113">
+      <c r="O113">
         <v>69</v>
       </c>
-      <c r="H113">
+      <c r="P113">
         <v>274</v>
       </c>
-      <c r="I113">
+      <c r="Q113">
         <v>90</v>
       </c>
-      <c r="J113">
+      <c r="R113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S113">
+        <v>7</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <v>5</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
+        <v>95</v>
+      </c>
+      <c r="D114" s="1">
+        <v>60</v>
+      </c>
+      <c r="E114" s="1">
+        <v>27</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1">
+        <v>113</v>
+      </c>
+      <c r="J114" s="1">
+        <v>124</v>
+      </c>
+      <c r="K114">
         <v>119</v>
       </c>
-      <c r="D114">
+      <c r="L114">
         <v>15</v>
       </c>
-      <c r="E114">
+      <c r="M114">
         <v>775</v>
       </c>
-      <c r="F114">
+      <c r="N114">
         <v>30</v>
       </c>
-      <c r="G114">
+      <c r="O114">
         <v>65</v>
       </c>
-      <c r="H114">
+      <c r="P114">
         <v>310</v>
       </c>
-      <c r="I114">
+      <c r="Q114">
         <v>117</v>
       </c>
-      <c r="J114">
+      <c r="R114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <v>6</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
+        <v>102</v>
+      </c>
+      <c r="D115" s="1">
+        <v>75</v>
+      </c>
+      <c r="E115" s="1">
+        <v>23</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1">
+        <v>104</v>
+      </c>
+      <c r="J115" s="1">
+        <v>107</v>
+      </c>
+      <c r="K115">
         <v>130</v>
       </c>
-      <c r="D115">
+      <c r="L115">
         <v>20</v>
       </c>
-      <c r="E115">
+      <c r="M115">
         <v>864</v>
       </c>
-      <c r="F115">
+      <c r="N115">
         <v>30</v>
       </c>
-      <c r="G115">
+      <c r="O115">
         <v>107</v>
       </c>
-      <c r="H115">
+      <c r="P115">
         <v>378</v>
       </c>
-      <c r="I115">
+      <c r="Q115">
         <v>100</v>
       </c>
-      <c r="J115">
+      <c r="R115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S115">
+        <v>8</v>
+      </c>
+      <c r="T115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <v>7</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
+        <v>101</v>
+      </c>
+      <c r="D116" s="1">
+        <v>58</v>
+      </c>
+      <c r="E116" s="1">
+        <v>23</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1">
+        <v>117</v>
+      </c>
+      <c r="J116" s="1">
+        <v>107</v>
+      </c>
+      <c r="K116">
         <v>122</v>
       </c>
-      <c r="D116">
+      <c r="L116">
         <v>19</v>
       </c>
-      <c r="E116">
+      <c r="M116">
         <v>838</v>
       </c>
-      <c r="F116">
+      <c r="N116">
         <v>30</v>
       </c>
-      <c r="G116">
+      <c r="O116">
         <v>92</v>
       </c>
-      <c r="H116">
+      <c r="P116">
         <v>379</v>
       </c>
-      <c r="I116">
+      <c r="Q116">
         <v>75</v>
       </c>
-      <c r="J116">
+      <c r="R116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S116">
+        <v>7</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <v>8</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
+        <v>99</v>
+      </c>
+      <c r="D117" s="1">
+        <v>67</v>
+      </c>
+      <c r="E117" s="1">
+        <v>24</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1">
+        <v>64</v>
+      </c>
+      <c r="J117" s="1">
+        <v>105</v>
+      </c>
+      <c r="K117">
         <v>124</v>
       </c>
-      <c r="D117">
+      <c r="L117">
         <v>23</v>
       </c>
-      <c r="E117">
+      <c r="M117">
         <v>970</v>
       </c>
-      <c r="F117">
+      <c r="N117">
         <v>47</v>
       </c>
-      <c r="G117">
+      <c r="O117">
         <v>127</v>
       </c>
-      <c r="H117">
+      <c r="P117">
         <v>455</v>
       </c>
-      <c r="I117">
+      <c r="Q117">
         <v>93</v>
       </c>
-      <c r="J117">
+      <c r="R117">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <v>9</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
+        <v>87</v>
+      </c>
+      <c r="D118" s="1">
+        <v>61</v>
+      </c>
+      <c r="E118" s="1">
+        <v>25</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1">
+        <v>94</v>
+      </c>
+      <c r="J118" s="1">
+        <v>91</v>
+      </c>
+      <c r="K118">
         <v>112</v>
       </c>
-      <c r="D118">
+      <c r="L118">
         <v>20</v>
       </c>
-      <c r="E118">
+      <c r="M118">
         <v>842</v>
       </c>
-      <c r="F118">
+      <c r="N118">
         <v>28</v>
       </c>
-      <c r="G118">
+      <c r="O118">
         <v>102</v>
       </c>
-      <c r="H118">
+      <c r="P118">
         <v>416</v>
       </c>
-      <c r="I118">
+      <c r="Q118">
         <v>82</v>
       </c>
-      <c r="J118">
+      <c r="R118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S118">
+        <v>4</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <v>10</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
+        <v>10</v>
+      </c>
+      <c r="D119" s="1">
+        <v>63</v>
+      </c>
+      <c r="E119" s="1">
+        <v>23</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1">
+        <v>122</v>
+      </c>
+      <c r="J119" s="1">
+        <v>108</v>
+      </c>
+      <c r="K119">
         <v>134</v>
       </c>
-      <c r="D119">
+      <c r="L119">
         <v>22</v>
       </c>
-      <c r="E119">
+      <c r="M119">
         <v>928</v>
       </c>
-      <c r="F119">
+      <c r="N119">
         <v>33</v>
       </c>
-      <c r="G119">
+      <c r="O119">
         <v>107</v>
       </c>
-      <c r="H119">
+      <c r="P119">
         <v>407</v>
       </c>
-      <c r="I119">
+      <c r="Q119">
         <v>96</v>
       </c>
-      <c r="J119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>6</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <v>11</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
+        <v>91</v>
+      </c>
+      <c r="D120" s="1">
+        <v>48</v>
+      </c>
+      <c r="E120" s="1">
+        <v>11</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1">
+        <v>98</v>
+      </c>
+      <c r="J120" s="1">
+        <v>73</v>
+      </c>
+      <c r="K120">
         <v>124</v>
       </c>
-      <c r="D120">
+      <c r="L120">
         <v>21</v>
       </c>
-      <c r="E120">
+      <c r="M120">
         <v>741</v>
       </c>
-      <c r="F120">
+      <c r="N120">
         <v>35</v>
       </c>
-      <c r="G120">
+      <c r="O120">
         <v>85</v>
       </c>
-      <c r="H120">
+      <c r="P120">
         <v>311</v>
       </c>
-      <c r="I120">
+      <c r="Q120">
         <v>112</v>
       </c>
-      <c r="J120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>6</v>
+      </c>
+      <c r="T120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <v>12</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
+        <v>85</v>
+      </c>
+      <c r="D121" s="1">
+        <v>69</v>
+      </c>
+      <c r="E121" s="1">
+        <v>7</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1">
+        <v>95</v>
+      </c>
+      <c r="J121" s="1">
+        <v>74</v>
+      </c>
+      <c r="K121">
         <v>100</v>
       </c>
-      <c r="D121">
+      <c r="L121">
         <v>11</v>
       </c>
-      <c r="E121">
-        <v>595</v>
-      </c>
-      <c r="F121">
+      <c r="M121">
+        <v>598</v>
+      </c>
+      <c r="N121">
         <v>25</v>
       </c>
-      <c r="G121">
+      <c r="O121">
         <v>53</v>
       </c>
-      <c r="H121">
-        <v>227</v>
-      </c>
-      <c r="I121">
+      <c r="P121">
+        <v>226</v>
+      </c>
+      <c r="Q121">
         <v>80</v>
       </c>
-      <c r="J121">
+      <c r="R121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S121">
+        <v>7</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2023</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
+        <v>91</v>
+      </c>
+      <c r="D122" s="1">
+        <v>67</v>
+      </c>
+      <c r="E122" s="1">
+        <v>28</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1">
+        <v>96</v>
+      </c>
+      <c r="J122" s="1">
+        <v>97</v>
+      </c>
+      <c r="K122">
         <v>116</v>
       </c>
-      <c r="D122">
+      <c r="L122">
         <v>18</v>
       </c>
-      <c r="E122">
-        <v>665</v>
-      </c>
-      <c r="F122">
+      <c r="M122">
+        <v>667</v>
+      </c>
+      <c r="N122">
         <v>20</v>
       </c>
-      <c r="G122">
+      <c r="O122">
         <v>81</v>
       </c>
-      <c r="H122">
-        <v>267</v>
-      </c>
-      <c r="I122">
+      <c r="P122">
+        <v>368</v>
+      </c>
+      <c r="Q122">
         <v>54</v>
       </c>
-      <c r="J122">
+      <c r="R122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <v>2</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
+        <v>93</v>
+      </c>
+      <c r="D123" s="1">
+        <v>66</v>
+      </c>
+      <c r="E123" s="1">
+        <v>30</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1">
+        <v>72</v>
+      </c>
+      <c r="J123" s="1">
+        <v>97</v>
+      </c>
+      <c r="K123">
         <v>115</v>
       </c>
-      <c r="D123">
+      <c r="L123">
         <v>19</v>
       </c>
-      <c r="E123">
-        <v>722</v>
-      </c>
-      <c r="F123">
+      <c r="M123">
+        <v>724</v>
+      </c>
+      <c r="N123">
         <v>23</v>
       </c>
-      <c r="G123">
+      <c r="O123">
         <v>65</v>
       </c>
-      <c r="H123">
+      <c r="P123">
         <v>269</v>
       </c>
-      <c r="I123">
+      <c r="Q123">
         <v>86</v>
       </c>
-      <c r="J123">
+      <c r="R123">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S123">
+        <v>3</v>
+      </c>
+      <c r="T123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>3</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
+        <v>74</v>
+      </c>
+      <c r="D124" s="1">
+        <v>55</v>
+      </c>
+      <c r="E124" s="1">
+        <v>23</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1">
+        <v>92</v>
+      </c>
+      <c r="J124" s="1">
+        <v>109</v>
+      </c>
+      <c r="K124">
         <v>105</v>
       </c>
-      <c r="D124">
+      <c r="L124">
         <v>22</v>
       </c>
-      <c r="E124">
+      <c r="M124">
         <v>810</v>
       </c>
-      <c r="F124">
+      <c r="N124">
         <v>35</v>
       </c>
-      <c r="G124">
+      <c r="O124">
         <v>78</v>
       </c>
-      <c r="H124">
+      <c r="P124">
         <v>338</v>
       </c>
-      <c r="I124">
+      <c r="Q124">
         <v>76</v>
       </c>
-      <c r="J124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>3</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <v>4</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
+        <v>101</v>
+      </c>
+      <c r="D125" s="1">
+        <v>71</v>
+      </c>
+      <c r="E125" s="1">
+        <v>14</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1">
+        <v>94</v>
+      </c>
+      <c r="J125" s="1">
+        <v>105</v>
+      </c>
+      <c r="K125">
         <v>124</v>
       </c>
-      <c r="D125">
+      <c r="L125">
         <v>16</v>
       </c>
-      <c r="E125">
-        <v>846</v>
-      </c>
-      <c r="F125">
-        <v>34</v>
-      </c>
-      <c r="G125">
-        <v>91</v>
-      </c>
-      <c r="H125">
-        <v>355</v>
-      </c>
-      <c r="I125">
+      <c r="M125">
+        <v>848</v>
+      </c>
+      <c r="N125">
+        <v>35</v>
+      </c>
+      <c r="O125">
+        <v>92</v>
+      </c>
+      <c r="P125">
+        <v>357</v>
+      </c>
+      <c r="Q125">
         <v>82</v>
       </c>
-      <c r="J125">
+      <c r="R125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S125">
+        <v>8</v>
+      </c>
+      <c r="T125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <v>5</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
+        <v>95</v>
+      </c>
+      <c r="D126" s="1">
+        <v>54</v>
+      </c>
+      <c r="E126" s="1">
+        <v>20</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1">
+        <v>77</v>
+      </c>
+      <c r="J126" s="1">
+        <v>75</v>
+      </c>
+      <c r="K126">
         <v>115</v>
       </c>
-      <c r="D126">
+      <c r="L126">
         <v>15</v>
       </c>
-      <c r="E126">
+      <c r="M126">
         <v>719</v>
       </c>
-      <c r="F126">
+      <c r="N126">
         <v>25</v>
       </c>
-      <c r="G126">
+      <c r="O126">
         <v>59</v>
       </c>
-      <c r="H126">
-        <v>297</v>
-      </c>
-      <c r="I126">
+      <c r="P126">
+        <v>298</v>
+      </c>
+      <c r="Q126">
         <v>65</v>
       </c>
-      <c r="J126">
+      <c r="R126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <v>6</v>
       </c>
-      <c r="C127">
-        <v>118</v>
-      </c>
-      <c r="D127">
+      <c r="C127" s="1">
+        <v>94</v>
+      </c>
+      <c r="D127" s="1">
+        <v>75</v>
+      </c>
+      <c r="E127" s="1">
         <v>20</v>
       </c>
-      <c r="E127">
-        <v>853</v>
-      </c>
-      <c r="F127">
-        <v>23</v>
-      </c>
-      <c r="G127">
-        <v>64</v>
-      </c>
-      <c r="H127">
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1">
+        <v>66</v>
+      </c>
+      <c r="J127" s="1">
+        <v>105</v>
+      </c>
+      <c r="K127">
+        <v>120</v>
+      </c>
+      <c r="L127">
+        <v>26</v>
+      </c>
+      <c r="M127">
+        <v>854</v>
+      </c>
+      <c r="N127">
+        <v>24</v>
+      </c>
+      <c r="O127">
+        <v>65</v>
+      </c>
+      <c r="P127">
         <v>362</v>
       </c>
-      <c r="I127">
-        <v>88</v>
-      </c>
-      <c r="J127">
+      <c r="Q127">
+        <v>89</v>
+      </c>
+      <c r="R127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="S127">
+        <v>3</v>
+      </c>
+      <c r="T127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <v>7</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
+        <v>88</v>
+      </c>
+      <c r="D128" s="1">
+        <v>60</v>
+      </c>
+      <c r="E128" s="1">
+        <v>21</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1">
+        <v>108</v>
+      </c>
+      <c r="J128" s="1">
+        <v>95</v>
+      </c>
+      <c r="K128">
         <v>119</v>
       </c>
-      <c r="D128">
+      <c r="L128">
         <v>26</v>
       </c>
-      <c r="E128">
-        <v>944</v>
-      </c>
-      <c r="F128">
+      <c r="M128">
+        <v>946</v>
+      </c>
+      <c r="N128">
         <v>65</v>
       </c>
-      <c r="G128">
+      <c r="O128">
         <v>126</v>
       </c>
-      <c r="H128">
-        <v>462</v>
-      </c>
-      <c r="I128">
+      <c r="P128">
+        <v>463</v>
+      </c>
+      <c r="Q128">
         <v>94</v>
       </c>
-      <c r="J128">
+      <c r="R128">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="S128">
+        <v>3</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>8</v>
       </c>
-      <c r="C129">
-        <v>128</v>
-      </c>
-      <c r="D129">
+      <c r="C129" s="1">
+        <v>104</v>
+      </c>
+      <c r="D129" s="1">
+        <v>59</v>
+      </c>
+      <c r="E129" s="1">
+        <v>19</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1">
+        <v>61</v>
+      </c>
+      <c r="J129" s="1">
+        <v>88</v>
+      </c>
+      <c r="K129">
+        <v>130</v>
+      </c>
+      <c r="L129">
         <v>17</v>
       </c>
-      <c r="E129">
-        <v>849</v>
-      </c>
-      <c r="F129">
+      <c r="M129">
+        <v>854</v>
+      </c>
+      <c r="N129">
         <v>39</v>
       </c>
-      <c r="G129">
+      <c r="O129">
         <v>76</v>
       </c>
-      <c r="H129">
-        <v>383</v>
-      </c>
-      <c r="I129">
-        <v>60</v>
-      </c>
-      <c r="J129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="P129">
+        <v>385</v>
+      </c>
+      <c r="Q129">
+        <v>63</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>7</v>
+      </c>
+      <c r="T129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <v>9</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
+        <v>85</v>
+      </c>
+      <c r="D130" s="1">
+        <v>45</v>
+      </c>
+      <c r="E130" s="1">
+        <v>16</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1">
+        <v>98</v>
+      </c>
+      <c r="J130" s="1">
+        <v>65</v>
+      </c>
+      <c r="K130">
         <v>107</v>
       </c>
-      <c r="D130">
+      <c r="L130">
         <v>14</v>
       </c>
-      <c r="E130">
+      <c r="M130">
         <v>742</v>
       </c>
-      <c r="F130">
+      <c r="N130">
         <v>25</v>
       </c>
-      <c r="G130">
+      <c r="O130">
         <v>59</v>
       </c>
-      <c r="H130">
-        <v>317</v>
-      </c>
-      <c r="I130">
-        <v>59</v>
-      </c>
-      <c r="J130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="P130">
+        <v>314</v>
+      </c>
+      <c r="Q130">
+        <v>60</v>
+      </c>
+      <c r="R130">
+        <v>5</v>
+      </c>
+      <c r="S130">
+        <v>3</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <v>10</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
+        <v>105</v>
+      </c>
+      <c r="D131" s="1">
+        <v>72</v>
+      </c>
+      <c r="E131" s="1">
+        <v>21</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1">
+        <v>91</v>
+      </c>
+      <c r="J131" s="1">
+        <v>108</v>
+      </c>
+      <c r="K131">
         <v>133</v>
       </c>
-      <c r="D131">
-        <v>26</v>
-      </c>
-      <c r="E131">
-        <v>821</v>
-      </c>
-      <c r="F131">
+      <c r="L131">
+        <v>25</v>
+      </c>
+      <c r="M131">
+        <v>824</v>
+      </c>
+      <c r="N131">
         <v>18</v>
       </c>
-      <c r="G131">
-        <v>65</v>
-      </c>
-      <c r="H131">
-        <v>365</v>
-      </c>
-      <c r="I131">
+      <c r="O131">
+        <v>66</v>
+      </c>
+      <c r="P131">
+        <v>368</v>
+      </c>
+      <c r="Q131">
         <v>77</v>
       </c>
-      <c r="J131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="R131">
+        <v>3</v>
+      </c>
+      <c r="S131">
+        <v>8</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <v>11</v>
       </c>
-      <c r="C132">
-        <v>108</v>
-      </c>
-      <c r="D132">
-        <v>28</v>
-      </c>
-      <c r="E132">
-        <v>661</v>
-      </c>
-      <c r="F132">
+      <c r="C132" s="1">
+        <v>81</v>
+      </c>
+      <c r="D132" s="1">
+        <v>76</v>
+      </c>
+      <c r="E132" s="1">
+        <v>15</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1">
+        <v>74</v>
+      </c>
+      <c r="J132" s="1">
+        <v>99</v>
+      </c>
+      <c r="K132">
+        <v>109</v>
+      </c>
+      <c r="L132">
+        <v>26</v>
+      </c>
+      <c r="M132">
+        <v>684</v>
+      </c>
+      <c r="N132">
         <v>16</v>
       </c>
-      <c r="G132">
-        <v>42</v>
-      </c>
-      <c r="H132">
-        <v>273</v>
-      </c>
-      <c r="I132">
+      <c r="O132">
+        <v>43</v>
+      </c>
+      <c r="P132">
+        <v>283</v>
+      </c>
+      <c r="Q132">
         <v>74</v>
       </c>
-      <c r="J132">
+      <c r="R132">
         <v>1</v>
+      </c>
+      <c r="S132">
+        <v>7</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B133" s="1">
+        <v>12</v>
+      </c>
+      <c r="C133" s="1">
+        <v>107</v>
+      </c>
+      <c r="D133" s="1">
+        <v>71</v>
+      </c>
+      <c r="E133" s="1">
+        <v>12</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1">
+        <v>95</v>
+      </c>
+      <c r="J133" s="1">
+        <v>111</v>
+      </c>
+      <c r="K133">
+        <v>134</v>
+      </c>
+      <c r="L133">
+        <v>24</v>
+      </c>
+      <c r="M133">
+        <v>735</v>
+      </c>
+      <c r="N133">
+        <v>15</v>
+      </c>
+      <c r="O133">
+        <v>41</v>
+      </c>
+      <c r="P133">
+        <v>277</v>
+      </c>
+      <c r="Q133">
+        <v>113</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="S133">
+        <v>17</v>
+      </c>
+      <c r="T133">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
